--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B4761-76B4-4E86-A165-282377579460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90511CA6-BEFE-4359-8A01-D06F57FC37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>IMG-20250415-WA0004.jpg</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/i/c/209babed470a3e4c/EW4ry2pdM8pPvCdfHdImHWcBfsT8fNCv4UTD9UNf--THqA?e=ZB32qv</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,6 +859,9 @@
       </c>
       <c r="J3" t="s">
         <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90511CA6-BEFE-4359-8A01-D06F57FC37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCE686-1C2A-4BEB-AA5C-AC8CFB056AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -125,9 +125,6 @@
     <t>abhaya_deshmukh</t>
   </si>
   <si>
-    <t>Sameer Virutkar</t>
-  </si>
-  <si>
     <t>+91 90216 91481</t>
   </si>
   <si>
@@ -263,10 +260,49 @@
     <t>Phone</t>
   </si>
   <si>
+    <t>WhatsApp Image 2025-04-15 at 10.55.24_4b93487f.jpg</t>
+  </si>
+  <si>
     <t>IMG-20250415-WA0004.jpg</t>
   </si>
   <si>
-    <t>https://1drv.ms/i/c/209babed470a3e4c/EW4ry2pdM8pPvCdfHdImHWcBfsT8fNCv4UTD9UNf--THqA?e=ZB32qv</t>
+    <t>WhatsApp Image 2025-04-15 at 10.36.18_8c39dc73.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 10.46.36_36c4cda7.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 10.31.22_12a5858c.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 10.40.30_86d67314.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-04-16 162757.png</t>
+  </si>
+  <si>
+    <t>IMG-20250101-WA0010.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 12.13.34_2bc9c20c.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 12.17.45_f8d38ca8.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 12.25.57_e77b436a.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 19.22.07_d840a353.jpg</t>
+  </si>
+  <si>
+    <t>IMG-20250415-WA0046.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-15 at 19.47.13_51ddcab9.jpg</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0005.jpg</t>
   </si>
 </sst>
 </file>
@@ -741,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +797,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -773,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -794,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -860,7 +896,7 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -888,6 +924,9 @@
       <c r="J4" t="s">
         <v>23</v>
       </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -918,6 +957,9 @@
       <c r="K5" t="s">
         <v>28</v>
       </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -925,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -934,19 +976,22 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
+      <c r="L6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -955,18 +1000,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7"/>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -974,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -983,15 +1031,18 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7"/>
       <c r="J8" t="s">
         <v>27</v>
       </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -999,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1008,17 +1059,20 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
       </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1026,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1035,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1059,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -1068,22 +1122,25 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="I11">
         <v>66</v>
       </c>
       <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
         <v>50</v>
       </c>
-      <c r="K11" t="s">
-        <v>51</v>
+      <c r="L11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1101,17 +1158,20 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
       </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1119,18 +1179,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7"/>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1138,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1147,19 +1210,22 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1168,18 +1234,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7"/>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1187,29 +1256,32 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7"/>
       <c r="J16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -1218,20 +1290,20 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1240,16 +1312,19 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="J18" t="s">
         <v>70</v>
       </c>
-      <c r="J18" t="s">
-        <v>71</v>
+      <c r="L18" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCE686-1C2A-4BEB-AA5C-AC8CFB056AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E3954-40F9-4BE1-B14F-879A47C642A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E3954-40F9-4BE1-B14F-879A47C642A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D439A-8F8F-46D0-A604-0CFBDA4379CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -303,6 +303,108 @@
   </si>
   <si>
     <t>IMG-20250416-WA0005.jpg</t>
+  </si>
+  <si>
+    <t>Kishan Kumar</t>
+  </si>
+  <si>
+    <t>+91 76315 19192</t>
+  </si>
+  <si>
+    <t>5'8</t>
+  </si>
+  <si>
+    <t>Samastipur, Bihar</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0035.jpg</t>
+  </si>
+  <si>
+    <t>Krish More</t>
+  </si>
+  <si>
+    <t>5'3"</t>
+  </si>
+  <si>
+    <t>+91 99676 52362</t>
+  </si>
+  <si>
+    <t>krishmore_official</t>
+  </si>
+  <si>
+    <t>Krish More (Child Actor) (1).jpg</t>
+  </si>
+  <si>
+    <t>Naman Nimesh</t>
+  </si>
+  <si>
+    <t>5'5"</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 10.48.46_f5e5a26b.jpg</t>
+  </si>
+  <si>
+    <t>+91 6398 229 250</t>
+  </si>
+  <si>
+    <t>Nidhi ghatkar</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kalyan. Mumbai</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 10.50.03_550ea05f.jpg</t>
+  </si>
+  <si>
+    <t>+91 72629 15101</t>
+  </si>
+  <si>
+    <t>Suraj Ahirwar</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 10.56.06_6ad3df82.jpg</t>
+  </si>
+  <si>
+    <t>Burari, Delhi</t>
+  </si>
+  <si>
+    <t>+91 87506 13932</t>
+  </si>
+  <si>
+    <t>D K Swami</t>
+  </si>
+  <si>
+    <t>+91 92112 91296</t>
+  </si>
+  <si>
+    <t>5'10"</t>
+  </si>
+  <si>
+    <t>Khushi Shrivas</t>
+  </si>
+  <si>
+    <t>+91 89594 22930</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0036.jpg</t>
+  </si>
+  <si>
+    <t>Sohail</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0057.jpg</t>
+  </si>
+  <si>
+    <t>+91 96542 91270</t>
   </si>
 </sst>
 </file>
@@ -367,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -383,6 +485,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,8 +543,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L18" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:L18" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:L26" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
       <calculatedColumnFormula>ROW() - ROW(Table1[[#Headers],[No]])</calculatedColumnFormula>
@@ -775,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,6 +1432,226 @@
       </c>
       <c r="L18" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="7"/>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25">
+        <v>48.4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="10"/>
+      <c r="L26" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1349,6 +1676,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
+  <ignoredErrors>
+    <ignoredError sqref="H22" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId19"/>
   </tableParts>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826D439A-8F8F-46D0-A604-0CFBDA4379CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19686C8E-4A83-4840-9D48-1F16B165207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>+91 96542 91270</t>
+  </si>
+  <si>
+    <t>Noida, Delhi</t>
+  </si>
+  <si>
+    <t>Ananya Tekawade</t>
+  </si>
+  <si>
+    <t>+91 98900 03285</t>
+  </si>
+  <si>
+    <t>4'4"</t>
+  </si>
+  <si>
+    <t>Pune, Mumbai</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0058.jpg</t>
   </si>
 </sst>
 </file>
@@ -543,8 +561,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:L26" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L28" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:L28" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
       <calculatedColumnFormula>ROW() - ROW(Table1[[#Headers],[No]])</calculatedColumnFormula>
@@ -882,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,9 +1668,49 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="10"/>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
       <c r="L26" t="s">
         <v>121</v>
       </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>27</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19686C8E-4A83-4840-9D48-1F16B165207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBABB7F-F769-451F-BCED-0D9F6F6FA72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,7 +903,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,10 +1704,6 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
-        <v>27</v>
-      </c>
       <c r="D28" s="9"/>
       <c r="G28" s="1"/>
       <c r="H28" s="10"/>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBABB7F-F769-451F-BCED-0D9F6F6FA72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED58E62-6C54-4324-B503-1F6832F10994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -353,9 +353,6 @@
     <t>Nidhi ghatkar</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Kalyan. Mumbai</t>
   </si>
   <si>
@@ -423,6 +420,141 @@
   </si>
   <si>
     <t>IMG-20250416-WA0058.jpg</t>
+  </si>
+  <si>
+    <t>Krutika Giri</t>
+  </si>
+  <si>
+    <t>+91 92848 79519</t>
+  </si>
+  <si>
+    <t>4'</t>
+  </si>
+  <si>
+    <t>Dhankwadi, Pune</t>
+  </si>
+  <si>
+    <t>kuhu_thelittlegirl</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0070.jpg</t>
+  </si>
+  <si>
+    <t>Sanvi Ankush Walke</t>
+  </si>
+  <si>
+    <t>116 cm</t>
+  </si>
+  <si>
+    <t>Swarda Ankush walke</t>
+  </si>
+  <si>
+    <t>+91 73500 60778</t>
+  </si>
+  <si>
+    <t>5'</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 12.48.12_6eaecd3f.jpg</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0078.jpg</t>
+  </si>
+  <si>
+    <t>Sharma Shivam Suraj</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0082.jpg</t>
+  </si>
+  <si>
+    <t>+91 92094 16190</t>
+  </si>
+  <si>
+    <t>Mustakim Khan</t>
+  </si>
+  <si>
+    <t>5'8"</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 12.52.05_bb4d2972.jpg</t>
+  </si>
+  <si>
+    <t>+91 95203 22874</t>
+  </si>
+  <si>
+    <t>Aryan ghorpade</t>
+  </si>
+  <si>
+    <t>+91 84462 50017</t>
+  </si>
+  <si>
+    <t>5'9"</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 13.25.52_efa87b13.jpg</t>
+  </si>
+  <si>
+    <t>Akash gujar</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0091.jpg</t>
+  </si>
+  <si>
+    <t>+91 90110 15943</t>
+  </si>
+  <si>
+    <t>Naitik</t>
+  </si>
+  <si>
+    <t>5'1"</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0095.jpg</t>
+  </si>
+  <si>
+    <t>+91 92263 22932</t>
+  </si>
+  <si>
+    <t>Sunny Jadhav</t>
+  </si>
+  <si>
+    <t>Gandhinagar Kolhapur Maharashtra</t>
+  </si>
+  <si>
+    <t>+91 89754 40315</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 13.53.23_4c62cab8.jpg</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0105.jpg</t>
+  </si>
+  <si>
+    <t>Sumit Chauhan</t>
+  </si>
+  <si>
+    <t>5'4"</t>
+  </si>
+  <si>
+    <t>+91 70161 50282</t>
+  </si>
+  <si>
+    <t>Avanish Ramdas Sable</t>
+  </si>
+  <si>
+    <t>PCMC, Pune</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 14.09.56_2429db76.jpg</t>
+  </si>
+  <si>
+    <t>+91 98346 77535</t>
+  </si>
+  <si>
+    <t>Vaishnav Rahate</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 14.11.07_4841eeb3.jpg</t>
   </si>
 </sst>
 </file>
@@ -503,11 +635,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,8 +693,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L28" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:L28" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L39" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:L39" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
       <calculatedColumnFormula>ROW() - ROW(Table1[[#Headers],[No]])</calculatedColumnFormula>
@@ -900,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1595,7 @@
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
@@ -1494,7 +1626,7 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>13</v>
       </c>
       <c r="E20" t="s">
@@ -1525,7 +1657,7 @@
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>17</v>
       </c>
       <c r="E21" t="s">
@@ -1553,21 +1685,21 @@
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s">
         <v>105</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>106</v>
-      </c>
-      <c r="L22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,24 +1708,24 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="7"/>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1602,20 +1734,20 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
         <v>113</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="9">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,29 +1756,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25">
         <v>17</v>
       </c>
       <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" t="s">
-        <v>118</v>
-      </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>95</v>
       </c>
       <c r="I25">
         <v>48.4</v>
       </c>
       <c r="L25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1655,24 +1787,24 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="9"/>
+      <c r="J26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="9">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="10"/>
-      <c r="J26" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1681,32 +1813,365 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>10</v>
       </c>
       <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="10" t="s">
+      <c r="J27" t="s">
         <v>126</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>127</v>
       </c>
-      <c r="L27" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="11">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="11">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="9"/>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="11">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="11">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="11">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="9"/>
+      <c r="I38">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="11">
+        <v>20</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1730,9 +2195,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
-  <ignoredErrors>
-    <ignoredError sqref="H22" numberStoredAsText="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId19"/>
   </tableParts>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED58E62-6C54-4324-B503-1F6832F10994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A06244-DDE7-4F12-9D81-FE12815FD837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -555,6 +555,132 @@
   </si>
   <si>
     <t>WhatsApp Image 2025-04-16 at 14.11.07_4841eeb3.jpg</t>
+  </si>
+  <si>
+    <t>Avanti Wavdhane</t>
+  </si>
+  <si>
+    <t>+91 85309 95270</t>
+  </si>
+  <si>
+    <t>5'7"</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 14.59.25_9104a9fd.jpg</t>
+  </si>
+  <si>
+    <t>+91 93074 45918</t>
+  </si>
+  <si>
+    <t>Priyansh Swapnil Tonape</t>
+  </si>
+  <si>
+    <t>3'8"</t>
+  </si>
+  <si>
+    <t>+91 93702 56415</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0118.jpg</t>
+  </si>
+  <si>
+    <t>Om Shahapurkar</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0018.jpg</t>
+  </si>
+  <si>
+    <t>+91 93218 01774</t>
+  </si>
+  <si>
+    <t>Sion, Mumbai</t>
+  </si>
+  <si>
+    <t>omshahapurkar_22</t>
+  </si>
+  <si>
+    <t>Pakhi Menghani</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0128.jpg</t>
+  </si>
+  <si>
+    <t>+91 96374 16644</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0023.jpg</t>
+  </si>
+  <si>
+    <t>Aditya Pawar</t>
+  </si>
+  <si>
+    <t>5'2"</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-04-16 181952.png</t>
+  </si>
+  <si>
+    <t>+91 70204 05885</t>
+  </si>
+  <si>
+    <t>+91 74988 53068</t>
+  </si>
+  <si>
+    <t>Suraj Tawar</t>
+  </si>
+  <si>
+    <t>Aurangabad, Maharashtra</t>
+  </si>
+  <si>
+    <t>171 cm</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0026.jpg</t>
+  </si>
+  <si>
+    <t>Ketki Vijay Gawade</t>
+  </si>
+  <si>
+    <t>+91 93238 14368</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 16.04.07_239186b7.jpg</t>
+  </si>
+  <si>
+    <t>+91 91759 28593</t>
+  </si>
+  <si>
+    <t>Sagar Jairaj</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0136.jpg</t>
+  </si>
+  <si>
+    <t>__sagar_7707</t>
+  </si>
+  <si>
+    <t>Shubham Krushna Sawant</t>
+  </si>
+  <si>
+    <t>Wakad, Pune</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-04-16 182957.png</t>
+  </si>
+  <si>
+    <t>+91 87673 65440</t>
+  </si>
+  <si>
+    <t>Delhi, Mumbai</t>
+  </si>
+  <si>
+    <t>iamdkswami</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0064.jpg</t>
   </si>
 </sst>
 </file>
@@ -619,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -635,7 +761,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -693,8 +818,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L39" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:L39" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L48" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:L48" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
       <calculatedColumnFormula>ROW() - ROW(Table1[[#Headers],[No]])</calculatedColumnFormula>
@@ -1032,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1488,9 @@
       <c r="K10" t="s">
         <v>45</v>
       </c>
+      <c r="L10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1749,6 +1877,15 @@
       <c r="H24" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1771,7 +1908,7 @@
         <v>117</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I25">
@@ -1799,7 +1936,7 @@
         <v>121</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="7"/>
       <c r="J26" t="s">
         <v>122</v>
       </c>
@@ -1825,7 +1962,7 @@
         <v>124</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J27" t="s">
@@ -1853,7 +1990,7 @@
         <v>129</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="7" t="s">
         <v>130</v>
       </c>
       <c r="J28" t="s">
@@ -1877,14 +2014,14 @@
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>137</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="7" t="s">
         <v>135</v>
       </c>
       <c r="I29">
@@ -1908,14 +2045,14 @@
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30">
         <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>137</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>138</v>
       </c>
       <c r="J30" t="s">
@@ -1936,14 +2073,14 @@
       <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31">
         <v>20</v>
       </c>
       <c r="E31" t="s">
         <v>143</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I31">
@@ -1967,14 +2104,14 @@
       <c r="C32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32">
         <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>147</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>145</v>
       </c>
       <c r="J32" t="s">
@@ -1995,14 +2132,14 @@
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33">
         <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>149</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>150</v>
       </c>
       <c r="J33" t="s">
@@ -2023,14 +2160,14 @@
       <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34">
         <v>24</v>
       </c>
       <c r="E34" t="s">
         <v>154</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="7"/>
       <c r="J34" t="s">
         <v>27</v>
       </c>
@@ -2049,14 +2186,14 @@
       <c r="C35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35">
         <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>158</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>156</v>
       </c>
       <c r="L35" t="s">
@@ -2074,14 +2211,14 @@
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36">
         <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>161</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>100</v>
       </c>
       <c r="J36" t="s">
@@ -2102,14 +2239,14 @@
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37">
         <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>166</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>165</v>
       </c>
       <c r="J37" t="s">
@@ -2130,14 +2267,14 @@
       <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38">
         <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>170</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="7"/>
       <c r="I38">
         <v>70</v>
       </c>
@@ -2159,11 +2296,14 @@
       <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39">
         <v>20</v>
       </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="7" t="s">
         <v>100</v>
       </c>
       <c r="J39" t="s">
@@ -2172,6 +2312,274 @@
       <c r="L39" t="s">
         <v>172</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="10">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="10">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="7"/>
+      <c r="J42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" t="s">
+        <v>186</v>
+      </c>
+      <c r="L42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="9"/>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="10">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J44" t="s">
+        <v>193</v>
+      </c>
+      <c r="L44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="10">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45">
+        <v>59</v>
+      </c>
+      <c r="J45" t="s">
+        <v>198</v>
+      </c>
+      <c r="L45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="10">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="10">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K47" t="s">
+        <v>207</v>
+      </c>
+      <c r="L47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="10">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="9"/>
+      <c r="I48">
+        <v>23</v>
+      </c>
+      <c r="J48" t="s">
+        <v>209</v>
+      </c>
+      <c r="L48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A06244-DDE7-4F12-9D81-FE12815FD837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F362755-5414-40E4-9B85-16BE2285AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -764,7 +764,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,6 +819,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:L48" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:L48" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L48">
+    <sortCondition ref="B1:B48"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
       <calculatedColumnFormula>ROW() - ROW(Table1[[#Headers],[No]])</calculatedColumnFormula>
@@ -1160,7 +1162,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -1230,26 +1232,22 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1258,29 +1256,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1288,26 +1278,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1316,31 +1308,26 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1349,31 +1336,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1382,20 +1366,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1404,26 +1396,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7"/>
+      <c r="I8">
+        <v>70</v>
+      </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1432,28 +1427,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>175</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1462,34 +1460,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="L10" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,34 +1493,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1534,28 +1529,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>53</v>
+        <v>201</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1564,20 +1562,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13">
+        <v>48.4</v>
+      </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1586,31 +1595,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
+      </c>
+      <c r="I14">
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1619,20 +1628,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1641,23 +1661,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="J16" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1666,21 +1694,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1688,28 +1724,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1718,29 +1751,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1749,29 +1781,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="H20" s="7" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1780,26 +1811,26 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
       <c r="E21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1808,26 +1839,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1836,24 +1869,26 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1862,29 +1897,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="H24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" t="s">
-        <v>212</v>
-      </c>
-      <c r="K24" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1893,29 +1927,20 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
       <c r="E25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25">
-        <v>48.4</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="7"/>
       <c r="L25" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,24 +1949,26 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1950,26 +1977,35 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" t="s">
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1978,29 +2014,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H28" s="7" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2009,29 +2044,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
+        <v>204</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" t="s">
+        <v>207</v>
       </c>
       <c r="L29" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,26 +2074,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" t="s">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="J30" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2068,29 +2099,26 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31">
-        <v>55</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="7"/>
       <c r="J31" t="s">
         <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2099,26 +2127,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H32" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,26 +2160,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="H33" s="7" t="s">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2155,24 +2193,20 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D34">
-        <v>24</v>
-      </c>
       <c r="E34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H34" s="7"/>
-      <c r="J34" t="s">
-        <v>27</v>
-      </c>
       <c r="L34" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2181,23 +2215,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="7" t="s">
-        <v>156</v>
+        <v>211</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>209</v>
       </c>
       <c r="L35" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2206,26 +2246,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H36" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J36" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="L36" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2234,26 +2276,26 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="7"/>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2262,27 +2304,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="7"/>
-      <c r="I38">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>168</v>
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>59</v>
       </c>
       <c r="L38" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2291,26 +2337,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H39" s="7" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2319,29 +2367,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="10">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="H40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2350,26 +2397,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="10">
-        <v>7</v>
+      <c r="D41">
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="H41" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>160</v>
       </c>
       <c r="L41" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2378,25 +2427,26 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42">
+        <v>18</v>
+      </c>
       <c r="E42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="J42" t="s">
-        <v>185</v>
-      </c>
-      <c r="K42" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2405,24 +2455,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
+        <v>196</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43">
+        <v>59</v>
+      </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2431,26 +2488,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="10">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="9" t="s">
-        <v>192</v>
+        <v>137</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2459,29 +2518,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="10">
-        <v>22</v>
+      <c r="D45">
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45">
-        <v>59</v>
+        <v>174</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2490,29 +2548,34 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="10">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="9" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I46">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="K46" t="s">
+        <v>50</v>
       </c>
       <c r="L46" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2521,26 +2584,20 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K47" t="s">
-        <v>207</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="7"/>
       <c r="L47" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2549,27 +2606,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="10">
-        <v>11</v>
+      <c r="D48">
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
-      <c r="I48">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>32</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
@@ -2583,28 +2644,58 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{9AEEF600-EA64-469D-AAC4-BE8CAF7165EF}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{9D337A9F-1529-4C66-965A-B5C11A7D7052}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{4BBCC510-970F-4240-A223-F3819E090D46}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{1CC6E836-2D1B-4560-ACD4-5F0870A287C6}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{DB99509A-C287-4FDC-900F-80A983C61EAC}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{99397182-F34B-4758-BB8E-8FFE7D6C2C68}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{0398D22F-0C2E-4754-95AB-87B2EE1B31E2}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{6BEC1333-FCD1-48E8-BB4B-FE99EC43D918}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{788A73A6-1F8F-49F3-A7B1-E4C0B494C7F1}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{0731349D-4670-4DC8-A6F4-69BCB533F7F6}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{36A8CB7B-C229-4AA6-A265-48D491A837A1}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{4F8B760F-788C-4E9A-9CD7-5CACA1F29A14}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{DF554996-4431-4E77-9BDB-B42CB0F17A38}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{5BBE8C47-B6F3-4D03-974C-1AA39672DE8C}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{C024DBC3-919E-4017-AE81-DDF7164997C6}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{794F831F-84CA-4685-957E-856A75AADBC7}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{00C22F3B-4948-4095-9782-8F840E5B93B5}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{9AEEF600-EA64-469D-AAC4-BE8CAF7165EF}"/>
+    <hyperlink ref="G27" r:id="rId2" xr:uid="{9D337A9F-1529-4C66-965A-B5C11A7D7052}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{4BBCC510-970F-4240-A223-F3819E090D46}"/>
+    <hyperlink ref="G48" r:id="rId4" xr:uid="{1CC6E836-2D1B-4560-ACD4-5F0870A287C6}"/>
+    <hyperlink ref="G31" r:id="rId5" xr:uid="{DB99509A-C287-4FDC-900F-80A983C61EAC}"/>
+    <hyperlink ref="G25" r:id="rId6" xr:uid="{99397182-F34B-4758-BB8E-8FFE7D6C2C68}"/>
+    <hyperlink ref="G26" r:id="rId7" xr:uid="{0398D22F-0C2E-4754-95AB-87B2EE1B31E2}"/>
+    <hyperlink ref="G28" r:id="rId8" xr:uid="{6BEC1333-FCD1-48E8-BB4B-FE99EC43D918}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{788A73A6-1F8F-49F3-A7B1-E4C0B494C7F1}"/>
+    <hyperlink ref="G39" r:id="rId10" xr:uid="{0731349D-4670-4DC8-A6F4-69BCB533F7F6}"/>
+    <hyperlink ref="G46" r:id="rId11" xr:uid="{36A8CB7B-C229-4AA6-A265-48D491A837A1}"/>
+    <hyperlink ref="G34" r:id="rId12" xr:uid="{4F8B760F-788C-4E9A-9CD7-5CACA1F29A14}"/>
+    <hyperlink ref="G38" r:id="rId13" xr:uid="{DF554996-4431-4E77-9BDB-B42CB0F17A38}"/>
+    <hyperlink ref="G30" r:id="rId14" xr:uid="{5BBE8C47-B6F3-4D03-974C-1AA39672DE8C}"/>
+    <hyperlink ref="G47" r:id="rId15" xr:uid="{C024DBC3-919E-4017-AE81-DDF7164997C6}"/>
+    <hyperlink ref="G3" r:id="rId16" xr:uid="{794F831F-84CA-4685-957E-856A75AADBC7}"/>
+    <hyperlink ref="G36" r:id="rId17" xr:uid="{00C22F3B-4948-4095-9782-8F840E5B93B5}"/>
+    <hyperlink ref="G14" r:id="rId18" display="https://1drv.ms/f/c/209babed470a3e4c/ErgNgPxtJ6xEu8OK6P57n2sBgbdczO4dE1Y6ps1rWNrGIg?e=t0TqyG" xr:uid="{E355BD0B-8CAB-428E-BF11-546527A8E484}"/>
+    <hyperlink ref="G15" r:id="rId19" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=IhMfns" xr:uid="{AAA6FE11-4F3A-4AB6-91F0-2CB7C0269BC0}"/>
+    <hyperlink ref="G19" r:id="rId20" display="https://1drv.ms/f/c/209babed470a3e4c/Eh9eXhZ3YJ1Fq4Ddp9BRnGgB_yuGbVUmh1-IzG9bQ50l1Q?e=5ywND5" xr:uid="{BD8FD547-4D82-467A-B467-4472D9E5B5C5}"/>
+    <hyperlink ref="G37" r:id="rId21" display="https://1drv.ms/f/c/209babed470a3e4c/EjbOWt-H0ANDoZg2N3ePsPwBrhfi0xQrHdEbwSm9UyxBuA?e=M0jeTo" xr:uid="{6B82F018-85F6-4BCB-98B5-28B4B3961BBF}"/>
+    <hyperlink ref="G42" r:id="rId22" display="https://1drv.ms/f/c/209babed470a3e4c/Enb1f2Zh80JJsa0wTiPKMtsBlZ8wac2mmnW7zgz8DCsc7A?e=ha6u2J" xr:uid="{AA4AFE39-C6B9-4816-9AA5-8688C2F76A27}"/>
+    <hyperlink ref="G6" r:id="rId23" display="https://1drv.ms/f/c/209babed470a3e4c/Ev60mJ8FlzROsi-CBSAb-84BMl9_JFECyd621CMs6vcGEw?e=zJqzfu" xr:uid="{621B5839-281F-4C31-B4CA-55DCE423FEBF}"/>
+    <hyperlink ref="G41" r:id="rId24" display="https://1drv.ms/f/c/209babed470a3e4c/EluA9k9918dHsaqdU8s7otABY93QtIA3rDCB9GCvHEA4iA?e=ebCIru" xr:uid="{3686A21D-327F-40EB-816C-374DA8742918}"/>
+    <hyperlink ref="G16" r:id="rId25" display="https://1drv.ms/f/c/209babed470a3e4c/Eg0MBmfkAplMtEqe4aLIHlAB2wTUiwOHN7JYWfh_Xk3H2w?e=JPG9yL" xr:uid="{F84047DF-ABE8-489F-9999-C4238CBDACFA}"/>
+    <hyperlink ref="G4" r:id="rId26" display="https://1drv.ms/f/c/209babed470a3e4c/ElxwHGSJiEBAjSUIm_ZPnjMBjbqJaHcLW1ZQnsl2HVLMBA?e=1EI8jF" xr:uid="{9FFE698A-C3C9-4B33-945A-0AAD804AD9DB}"/>
+    <hyperlink ref="G5" r:id="rId27" display="https://1drv.ms/f/c/209babed470a3e4c/Ev8JmvMqyz5BnxTbXvxKZ9kBNXEcGB29fyU4WP5QM9BWvg?e=vo2t3A" xr:uid="{B046C557-CB0E-46F8-B152-BB86B008C5EF}"/>
+    <hyperlink ref="G7" r:id="rId28" display="https://1drv.ms/f/c/209babed470a3e4c/EhaD8_e1K4BAsKYzfK40pZwBbdjw0A7zkLWJbPvDZXA-uQ?e=JGurJG" xr:uid="{04005D96-8913-4C8A-AFE8-58EFCCD6A129}"/>
+    <hyperlink ref="G8" r:id="rId29" display="https://1drv.ms/f/c/209babed470a3e4c/EsdNgHxW3qNPqvfi6gDlB4sBJ6TG3MnKmM_hNGmnNpkyWw?e=KfCYwx" xr:uid="{94EA7A50-5D40-4531-9A23-17841AF413B0}"/>
+    <hyperlink ref="G9" r:id="rId30" display="https://1drv.ms/f/c/209babed470a3e4c/EoaD8vi9IuxIj7Xp7xlSEh4B2RwGNGD67V54YLBA_pwPzQ?e=a1NbPP" xr:uid="{F57BB664-3A8D-4EB2-A014-7049824A0D9C}"/>
+    <hyperlink ref="G10" r:id="rId31" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=zdHzvJ" xr:uid="{97202BCC-84E9-4EA5-BE72-7AB7423D17D8}"/>
+    <hyperlink ref="G12" r:id="rId32" display="https://1drv.ms/f/c/209babed470a3e4c/ElM2RG9sd1pEl8QdB8fbcnIBiPo9MWS_f4nNaLzD8LShgg?e=0C7JVo" xr:uid="{346BF57F-BB4A-4E5F-B895-79527996CE19}"/>
+    <hyperlink ref="G13" r:id="rId33" display="https://1drv.ms/f/c/209babed470a3e4c/Eqf9r0jy4xxCnftEowdLGrkB8PB8A90tf6Xqv0XSJvaUBw?e=jdKaK7" xr:uid="{E2CEFE54-F536-4A1A-BF7F-5FECFE4A6045}"/>
+    <hyperlink ref="G17" r:id="rId34" display="https://1drv.ms/f/c/209babed470a3e4c/EimFVXRv8PBCgBY0m13q8gUBchDV1bzgJ3g3RZ80ttsZAw?e=fjpibj" xr:uid="{734A9C3D-EF31-444A-8E56-91CFDCD27EEE}"/>
+    <hyperlink ref="G18" r:id="rId35" display="https://1drv.ms/f/c/209babed470a3e4c/EgYwLkk2ezpApVRv5_sd4C4Bbk-bb2t2qHFhjr-VvOBIIg?e=i4x3Is" xr:uid="{9EE31BA0-85CE-4D27-863A-AD4DA183CCB3}"/>
+    <hyperlink ref="G20" r:id="rId36" display="https://1drv.ms/f/c/209babed470a3e4c/Eluo7GQG3UJBq8QRx6llP0sBxKQfG5mVt_sZCx8InWPpLg?e=A6MhFq" xr:uid="{06A77BDC-EDFB-47C9-87EF-F1AF5FA69D9A}"/>
+    <hyperlink ref="G21" r:id="rId37" display="https://1drv.ms/f/c/209babed470a3e4c/EndGVEKmpuxAtGTgSpSo22IBIProPjE7EP1NO5dpwwnX2Q?e=BOQihy" xr:uid="{F2954FD3-515B-47E6-9ADC-16B36C1AF6DA}"/>
+    <hyperlink ref="G23" r:id="rId38" display="https://1drv.ms/f/c/209babed470a3e4c/EojRC7r-zcZFqh4jkRiaIrkBAy2Ut20uY3rLruaK6bcGUA?e=Ophtle" xr:uid="{7F6241B0-569B-4EB2-91A0-A4EDB3A75416}"/>
+    <hyperlink ref="G24" r:id="rId39" display="https://1drv.ms/f/c/209babed470a3e4c/EniUqWlTIR9DkovGNszwf1UBWCUduOByn3wefRKhM9BLLg?e=3yLlHz" xr:uid="{FB8C422B-315F-4728-85FE-7FB1015C0D94}"/>
+    <hyperlink ref="G29" r:id="rId40" display="https://1drv.ms/f/c/209babed470a3e4c/EhZz_Y23VEJJmXrG2gsfomgBDX3lDr8sdbZtlin3GvEEzQ?e=1W6aYb" xr:uid="{360232CC-B9FE-427A-A73F-1247573F29A2}"/>
+    <hyperlink ref="G32" r:id="rId41" display="https://1drv.ms/f/c/209babed470a3e4c/Ek2qu_N-PGhItJdrrdXv1o4Bsl4mygFA2UsN1g7P3JMhCQ?e=qfcPiD" xr:uid="{714B6D77-7F72-494C-8E9F-C33A437398EB}"/>
+    <hyperlink ref="G33" r:id="rId42" display="https://1drv.ms/f/c/209babed470a3e4c/EuDAjMjJKXNDlF4e-7pJ5D8Bz4s4zD9jzPHlE4xB8xnlUQ?e=MCUYhm" xr:uid="{E604B275-C181-49CE-BDF3-D1E3B4D4A13F}"/>
+    <hyperlink ref="G35" r:id="rId43" display="https://1drv.ms/f/c/209babed470a3e4c/ErJqIXg0uKZJt6VL7S1vy_wBOcq0Isix6GB-kkn4BASb6Q?e=AI8WRI" xr:uid="{3AF5118B-88D8-47A7-90A9-9EE24ADB66C5}"/>
+    <hyperlink ref="G40" r:id="rId44" display="https://1drv.ms/f/c/209babed470a3e4c/EvV9i8ySSOxMkxR88ifnFVUBpsMuwLQqrFYs4o8koDS__Q?e=GU26ek" xr:uid="{9A8F431F-A7E8-4A46-860C-4033967B114A}"/>
+    <hyperlink ref="G43" r:id="rId45" display="https://1drv.ms/f/c/209babed470a3e4c/EuUQVbyYqGdNur-riX8-9CMB9_H9UB-mkt9c24sNlfYflw?e=sSFQ9q" xr:uid="{666D7899-B95A-4E90-9D9B-F186B8E3BFE2}"/>
+    <hyperlink ref="G44" r:id="rId46" display="https://1drv.ms/f/c/209babed470a3e4c/Egtu4e5Nad1PoPyy0bBnRzIBP41wCO4GcbBjLk3o9wQd4w?e=5FlCSm" xr:uid="{47FE47C3-9351-4B04-8895-BFA3632AF58D}"/>
+    <hyperlink ref="G45" r:id="rId47" display="https://1drv.ms/f/c/209babed470a3e4c/EsB-yiZzUVdLq4v7FzhKYtYBPodb_Q6m27cwmGfluYRfSw?e=aHyYkm" xr:uid="{CBBA3F4A-1C13-4FF9-AB81-2C2E91592DFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F362755-5414-40E4-9B85-16BE2285AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A42D8A2-1D9D-4EDB-AA37-B98AAD5705AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
     <t>5'2</t>
   </si>
   <si>
-    <t xml:space="preserve">Jai Dhiresh Pednekar </t>
-  </si>
-  <si>
     <t>+91 96992 15719</t>
   </si>
   <si>
@@ -608,9 +605,6 @@
     <t>+91 96374 16644</t>
   </si>
   <si>
-    <t>IMG-20250416-WA0023.jpg</t>
-  </si>
-  <si>
     <t>Aditya Pawar</t>
   </si>
   <si>
@@ -681,6 +675,12 @@
   </si>
   <si>
     <t>IMG-20250416-WA0064.jpg</t>
+  </si>
+  <si>
+    <t>Screenshot 2025-04-16 210236.png</t>
+  </si>
+  <si>
+    <t>IMG-20250416-WA0024.jpg</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1214,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1265,12 +1265,15 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="7"/>
+      <c r="L3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1278,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -1287,19 +1290,19 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="L4" t="s">
         <v>192</v>
-      </c>
-      <c r="J4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1308,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -1317,17 +1320,17 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7"/>
       <c r="J5" t="s">
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1336,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1345,19 +1348,19 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" t="s">
         <v>125</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>126</v>
-      </c>
-      <c r="L6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1366,28 +1369,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -1405,20 +1408,20 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8">
         <v>70</v>
       </c>
       <c r="J8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" t="s">
         <v>168</v>
-      </c>
-      <c r="L8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1436,13 +1439,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9">
         <v>50</v>
@@ -1451,7 +1454,7 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1460,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -1469,22 +1472,22 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="J10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" t="s">
         <v>212</v>
-      </c>
-      <c r="K10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1493,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -1502,25 +1505,25 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1529,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1538,13 +1541,13 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -1553,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1562,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1571,22 +1574,22 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
         <v>116</v>
       </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13">
         <v>48.4</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1595,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -1604,22 +1607,22 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="I14">
         <v>49</v>
       </c>
       <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1628,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1637,22 +1640,22 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" t="s">
         <v>97</v>
-      </c>
-      <c r="L15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1661,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1670,22 +1673,22 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="J16" t="s">
         <v>130</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>131</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1694,28 +1697,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1724,7 +1727,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1733,16 +1736,16 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="L18" t="s">
         <v>156</v>
-      </c>
-      <c r="L18" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,28 +1754,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" t="s">
         <v>100</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>101</v>
-      </c>
-      <c r="L19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1781,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -1790,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>105</v>
-      </c>
-      <c r="L20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1811,26 +1814,26 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H21" s="7"/>
       <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
         <v>185</v>
       </c>
-      <c r="K21" t="s">
-        <v>186</v>
-      </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1869,7 +1872,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -1878,17 +1881,17 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H23" s="9"/>
       <c r="J23" t="s">
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1897,7 +1900,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -1906,19 +1909,19 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1940,7 +1943,7 @@
       </c>
       <c r="H25" s="7"/>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1968,7 +1971,7 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2005,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,7 +2038,7 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2044,28 +2047,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="L29" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2074,23 +2077,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="7"/>
       <c r="J30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2118,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -2136,13 +2139,13 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="I32">
         <v>20</v>
@@ -2151,7 +2154,7 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2160,7 +2163,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>17</v>
@@ -2169,13 +2172,13 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33">
         <v>55</v>
@@ -2184,7 +2187,7 @@
         <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2193,20 +2196,20 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>55</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="7"/>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2215,7 +2218,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>17</v>
@@ -2224,20 +2227,20 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35">
         <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,7 +2249,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -2255,19 +2258,19 @@
         <v>22</v>
       </c>
       <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="J36" t="s">
         <v>69</v>
       </c>
-      <c r="J36" t="s">
-        <v>70</v>
-      </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2276,7 +2279,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>17</v>
@@ -2285,17 +2288,17 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="7"/>
       <c r="J37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2304,7 +2307,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>10</v>
@@ -2313,22 +2316,22 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="J38" t="s">
         <v>27</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2337,7 +2340,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
@@ -2346,19 +2349,19 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="J39" t="s">
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2367,7 +2370,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>17</v>
@@ -2376,19 +2379,19 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2397,7 +2400,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>17</v>
@@ -2406,19 +2409,19 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" t="s">
         <v>161</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" t="s">
-        <v>160</v>
-      </c>
-      <c r="L41" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2427,7 +2430,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>17</v>
@@ -2436,17 +2439,17 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42" s="7"/>
       <c r="J42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2455,7 +2458,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>17</v>
@@ -2464,22 +2467,22 @@
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" t="s">
         <v>197</v>
-      </c>
-      <c r="H43" t="s">
-        <v>199</v>
       </c>
       <c r="I43">
         <v>59</v>
       </c>
       <c r="J43" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" t="s">
         <v>198</v>
-      </c>
-      <c r="L43" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2488,7 +2491,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>10</v>
@@ -2497,19 +2500,19 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="J44" t="s">
         <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2518,7 +2521,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>17</v>
@@ -2527,19 +2530,19 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2548,7 +2551,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>17</v>
@@ -2557,25 +2560,25 @@
         <v>24</v>
       </c>
       <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="I46">
         <v>66</v>
       </c>
       <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" t="s">
         <v>49</v>
       </c>
-      <c r="K46" t="s">
-        <v>50</v>
-      </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2584,20 +2587,20 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="7"/>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2630,7 +2633,7 @@
         <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF184D-397F-4B0A-BF19-F2972AF632E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E63BEE-6E35-407B-B4D4-A560D115A6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -696,6 +696,105 @@
   </si>
   <si>
     <t>rutzworld</t>
+  </si>
+  <si>
+    <t>+91 93732 45592</t>
+  </si>
+  <si>
+    <t>Rajesh Gavali</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 19.46.03_713bbc4c.jpg</t>
+  </si>
+  <si>
+    <t>Mahira Bhradiya</t>
+  </si>
+  <si>
+    <t>+91 99609 94823</t>
+  </si>
+  <si>
+    <t>IMG-20250417-WA0009.jpg</t>
+  </si>
+  <si>
+    <t>mahira_starkid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83cm </t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-16 at 23.44.52_fb8231bd.jpg</t>
+  </si>
+  <si>
+    <t>Ayush Mathur</t>
+  </si>
+  <si>
+    <t>+91 86989 82104</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-17 at 10.34.20_352be77b.jpg</t>
+  </si>
+  <si>
+    <t>Shah Rukh Khan</t>
+  </si>
+  <si>
+    <t>+91 98919 47952</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Purnima Tiwari</t>
+  </si>
+  <si>
+    <t>+91 95897 56663</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-17 at 11.35.42_b9a9c198.jpg</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>5'3</t>
+  </si>
+  <si>
+    <t>Anshika Gupta</t>
+  </si>
+  <si>
+    <t>+91 84549 36682</t>
+  </si>
+  <si>
+    <t>4'7</t>
+  </si>
+  <si>
+    <t>IMG-20250417-WA0025.jpg</t>
+  </si>
+  <si>
+    <t>theanshikaguptaa</t>
+  </si>
+  <si>
+    <t>Myra</t>
+  </si>
+  <si>
+    <t>IMG-20250417-WA0033.jpg</t>
+  </si>
+  <si>
+    <t>+91 97640 00399</t>
+  </si>
+  <si>
+    <t>Santu Ghosh</t>
+  </si>
+  <si>
+    <t>IMG-20250417-WA0041.jpg</t>
+  </si>
+  <si>
+    <t>Mumbai, Kolkata</t>
+  </si>
+  <si>
+    <t>5'4</t>
+  </si>
+  <si>
+    <t>+91 95479 16073</t>
   </si>
 </sst>
 </file>
@@ -760,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -779,7 +878,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -833,10 +934,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:M50" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:M50" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M50">
-    <sortCondition descending="1" ref="M1:M50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:M57" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:M57" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">
+    <sortCondition descending="1" ref="M1:M57"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
@@ -1176,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1291,7 @@
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="8"/>
     <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
@@ -1249,7 +1350,7 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -1278,62 +1379,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>226</v>
+      </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1342,31 +1445,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>192</v>
+      <c r="D5" s="11">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>189</v>
+        <v>229</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1375,29 +1478,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>152</v>
+      <c r="D6" s="11">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="L6" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1406,31 +1511,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1439,31 +1544,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>244</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1472,32 +1580,24 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>166</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="L9" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1506,34 +1606,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>175</v>
+      <c r="E10" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1542,31 +1639,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1578,34 +1675,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="L12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1617,31 +1703,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13">
-        <v>40</v>
+        <v>188</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="L13" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1653,31 +1736,26 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14">
-        <v>48.4</v>
+        <v>150</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="J14" t="s">
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1689,31 +1767,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1725,31 +1800,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1761,31 +1833,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>128</v>
+        <v>165</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17">
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1797,28 +1867,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>143</v>
+        <v>173</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1830,25 +1903,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>154</v>
+        <v>112</v>
+      </c>
+      <c r="J19" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s">
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1860,28 +1939,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1893,28 +1978,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1926,26 +2014,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="J22" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" t="s">
-        <v>184</v>
+        <v>113</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22">
+        <v>48.4</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1957,28 +2050,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="I23">
+        <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1990,26 +2086,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>110</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2021,28 +2122,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>177</v>
+        <v>128</v>
+      </c>
+      <c r="J25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" t="s">
+        <v>130</v>
       </c>
       <c r="L25" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2054,20 +2158,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
       <c r="L26" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2079,26 +2191,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="J27" t="s">
-        <v>27</v>
+        <v>153</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2110,35 +2221,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" t="s">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2150,28 +2254,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2183,28 +2287,26 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="J30" t="s">
+        <v>183</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2216,23 +2318,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="J31" s="5" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2244,26 +2351,26 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2275,31 +2382,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2311,31 +2415,20 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I34">
-        <v>55</v>
-      </c>
-      <c r="J34" t="s">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H34" s="7"/>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2347,20 +2440,26 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7"/>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2372,29 +2471,35 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
-        <v>208</v>
+      <c r="F36" t="s">
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" t="s">
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2406,28 +2511,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2439,26 +2544,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="J38" t="s">
-        <v>120</v>
+        <v>202</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" t="s">
+        <v>204</v>
       </c>
       <c r="L38" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2470,31 +2577,23 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="J39" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2506,28 +2605,26 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H40" s="7"/>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2539,28 +2636,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2572,28 +2672,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>98</v>
       </c>
+      <c r="I42">
+        <v>55</v>
+      </c>
       <c r="J42" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2605,26 +2708,20 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43">
-        <v>18</v>
-      </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="J43" t="s">
-        <v>108</v>
-      </c>
       <c r="L43" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2636,31 +2733,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H44" t="s">
-        <v>196</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H44" s="9"/>
       <c r="I44">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2672,28 +2767,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2705,28 +2800,26 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H46" s="7"/>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2738,34 +2831,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2777,20 +2867,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2802,31 +2900,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -2837,69 +2932,328 @@
         <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
         <v>49</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H51" s="7"/>
+      <c r="J51" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52">
+        <v>59</v>
+      </c>
+      <c r="J52" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" t="s">
+        <v>197</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="s">
+        <v>170</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55">
+        <v>66</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" t="s">
+        <v>80</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="L56" t="s">
+        <v>84</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" t="s">
+        <v>76</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{9AEEF600-EA64-469D-AAC4-BE8CAF7165EF}"/>
-    <hyperlink ref="G28" r:id="rId2" xr:uid="{9D337A9F-1529-4C66-965A-B5C11A7D7052}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{4BBCC510-970F-4240-A223-F3819E090D46}"/>
-    <hyperlink ref="G49" r:id="rId4" xr:uid="{1CC6E836-2D1B-4560-ACD4-5F0870A287C6}"/>
-    <hyperlink ref="G32" r:id="rId5" xr:uid="{DB99509A-C287-4FDC-900F-80A983C61EAC}"/>
-    <hyperlink ref="G26" r:id="rId6" xr:uid="{99397182-F34B-4758-BB8E-8FFE7D6C2C68}"/>
-    <hyperlink ref="G27" r:id="rId7" xr:uid="{0398D22F-0C2E-4754-95AB-87B2EE1B31E2}"/>
-    <hyperlink ref="G29" r:id="rId8" xr:uid="{6BEC1333-FCD1-48E8-BB4B-FE99EC43D918}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{788A73A6-1F8F-49F3-A7B1-E4C0B494C7F1}"/>
-    <hyperlink ref="G40" r:id="rId10" xr:uid="{0731349D-4670-4DC8-A6F4-69BCB533F7F6}"/>
-    <hyperlink ref="G47" r:id="rId11" xr:uid="{36A8CB7B-C229-4AA6-A265-48D491A837A1}"/>
-    <hyperlink ref="G35" r:id="rId12" xr:uid="{4F8B760F-788C-4E9A-9CD7-5CACA1F29A14}"/>
-    <hyperlink ref="G39" r:id="rId13" xr:uid="{DF554996-4431-4E77-9BDB-B42CB0F17A38}"/>
-    <hyperlink ref="G31" r:id="rId14" xr:uid="{5BBE8C47-B6F3-4D03-974C-1AA39672DE8C}"/>
-    <hyperlink ref="G48" r:id="rId15" xr:uid="{C024DBC3-919E-4017-AE81-DDF7164997C6}"/>
-    <hyperlink ref="G4" r:id="rId16" xr:uid="{794F831F-84CA-4685-957E-856A75AADBC7}"/>
-    <hyperlink ref="G37" r:id="rId17" xr:uid="{00C22F3B-4948-4095-9782-8F840E5B93B5}"/>
-    <hyperlink ref="G15" r:id="rId18" display="https://1drv.ms/f/c/209babed470a3e4c/ErgNgPxtJ6xEu8OK6P57n2sBgbdczO4dE1Y6ps1rWNrGIg?e=t0TqyG" xr:uid="{E355BD0B-8CAB-428E-BF11-546527A8E484}"/>
-    <hyperlink ref="G16" r:id="rId19" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=IhMfns" xr:uid="{AAA6FE11-4F3A-4AB6-91F0-2CB7C0269BC0}"/>
-    <hyperlink ref="G20" r:id="rId20" display="https://1drv.ms/f/c/209babed470a3e4c/Eh9eXhZ3YJ1Fq4Ddp9BRnGgB_yuGbVUmh1-IzG9bQ50l1Q?e=5ywND5" xr:uid="{BD8FD547-4D82-467A-B467-4472D9E5B5C5}"/>
-    <hyperlink ref="G38" r:id="rId21" display="https://1drv.ms/f/c/209babed470a3e4c/EjbOWt-H0ANDoZg2N3ePsPwBrhfi0xQrHdEbwSm9UyxBuA?e=M0jeTo" xr:uid="{6B82F018-85F6-4BCB-98B5-28B4B3961BBF}"/>
-    <hyperlink ref="G43" r:id="rId22" display="https://1drv.ms/f/c/209babed470a3e4c/Enb1f2Zh80JJsa0wTiPKMtsBlZ8wac2mmnW7zgz8DCsc7A?e=ha6u2J" xr:uid="{AA4AFE39-C6B9-4816-9AA5-8688C2F76A27}"/>
-    <hyperlink ref="G7" r:id="rId23" display="https://1drv.ms/f/c/209babed470a3e4c/Ev60mJ8FlzROsi-CBSAb-84BMl9_JFECyd621CMs6vcGEw?e=zJqzfu" xr:uid="{621B5839-281F-4C31-B4CA-55DCE423FEBF}"/>
-    <hyperlink ref="G42" r:id="rId24" display="https://1drv.ms/f/c/209babed470a3e4c/EluA9k9918dHsaqdU8s7otABY93QtIA3rDCB9GCvHEA4iA?e=ebCIru" xr:uid="{3686A21D-327F-40EB-816C-374DA8742918}"/>
-    <hyperlink ref="G17" r:id="rId25" display="https://1drv.ms/f/c/209babed470a3e4c/Eg0MBmfkAplMtEqe4aLIHlAB2wTUiwOHN7JYWfh_Xk3H2w?e=JPG9yL" xr:uid="{F84047DF-ABE8-489F-9999-C4238CBDACFA}"/>
-    <hyperlink ref="G5" r:id="rId26" display="https://1drv.ms/f/c/209babed470a3e4c/ElxwHGSJiEBAjSUIm_ZPnjMBjbqJaHcLW1ZQnsl2HVLMBA?e=1EI8jF" xr:uid="{9FFE698A-C3C9-4B33-945A-0AAD804AD9DB}"/>
-    <hyperlink ref="G6" r:id="rId27" display="https://1drv.ms/f/c/209babed470a3e4c/Ev8JmvMqyz5BnxTbXvxKZ9kBNXEcGB29fyU4WP5QM9BWvg?e=vo2t3A" xr:uid="{B046C557-CB0E-46F8-B152-BB86B008C5EF}"/>
-    <hyperlink ref="G8" r:id="rId28" display="https://1drv.ms/f/c/209babed470a3e4c/EhaD8_e1K4BAsKYzfK40pZwBbdjw0A7zkLWJbPvDZXA-uQ?e=JGurJG" xr:uid="{04005D96-8913-4C8A-AFE8-58EFCCD6A129}"/>
-    <hyperlink ref="G9" r:id="rId29" display="https://1drv.ms/f/c/209babed470a3e4c/EsdNgHxW3qNPqvfi6gDlB4sBJ6TG3MnKmM_hNGmnNpkyWw?e=KfCYwx" xr:uid="{94EA7A50-5D40-4531-9A23-17841AF413B0}"/>
-    <hyperlink ref="G10" r:id="rId30" display="https://1drv.ms/f/c/209babed470a3e4c/EoaD8vi9IuxIj7Xp7xlSEh4B2RwGNGD67V54YLBA_pwPzQ?e=a1NbPP" xr:uid="{F57BB664-3A8D-4EB2-A014-7049824A0D9C}"/>
-    <hyperlink ref="G11" r:id="rId31" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=zdHzvJ" xr:uid="{97202BCC-84E9-4EA5-BE72-7AB7423D17D8}"/>
-    <hyperlink ref="G13" r:id="rId32" display="https://1drv.ms/f/c/209babed470a3e4c/ElM2RG9sd1pEl8QdB8fbcnIBiPo9MWS_f4nNaLzD8LShgg?e=0C7JVo" xr:uid="{346BF57F-BB4A-4E5F-B895-79527996CE19}"/>
-    <hyperlink ref="G14" r:id="rId33" display="https://1drv.ms/f/c/209babed470a3e4c/Eqf9r0jy4xxCnftEowdLGrkB8PB8A90tf6Xqv0XSJvaUBw?e=jdKaK7" xr:uid="{E2CEFE54-F536-4A1A-BF7F-5FECFE4A6045}"/>
-    <hyperlink ref="G18" r:id="rId34" display="https://1drv.ms/f/c/209babed470a3e4c/EimFVXRv8PBCgBY0m13q8gUBchDV1bzgJ3g3RZ80ttsZAw?e=fjpibj" xr:uid="{734A9C3D-EF31-444A-8E56-91CFDCD27EEE}"/>
-    <hyperlink ref="G19" r:id="rId35" display="https://1drv.ms/f/c/209babed470a3e4c/EgYwLkk2ezpApVRv5_sd4C4Bbk-bb2t2qHFhjr-VvOBIIg?e=i4x3Is" xr:uid="{9EE31BA0-85CE-4D27-863A-AD4DA183CCB3}"/>
-    <hyperlink ref="G21" r:id="rId36" display="https://1drv.ms/f/c/209babed470a3e4c/Eluo7GQG3UJBq8QRx6llP0sBxKQfG5mVt_sZCx8InWPpLg?e=A6MhFq" xr:uid="{06A77BDC-EDFB-47C9-87EF-F1AF5FA69D9A}"/>
-    <hyperlink ref="G22" r:id="rId37" display="https://1drv.ms/f/c/209babed470a3e4c/EndGVEKmpuxAtGTgSpSo22IBIProPjE7EP1NO5dpwwnX2Q?e=BOQihy" xr:uid="{F2954FD3-515B-47E6-9ADC-16B36C1AF6DA}"/>
-    <hyperlink ref="G24" r:id="rId38" display="https://1drv.ms/f/c/209babed470a3e4c/EojRC7r-zcZFqh4jkRiaIrkBAy2Ut20uY3rLruaK6bcGUA?e=Ophtle" xr:uid="{7F6241B0-569B-4EB2-91A0-A4EDB3A75416}"/>
-    <hyperlink ref="G25" r:id="rId39" display="https://1drv.ms/f/c/209babed470a3e4c/EniUqWlTIR9DkovGNszwf1UBWCUduOByn3wefRKhM9BLLg?e=3yLlHz" xr:uid="{FB8C422B-315F-4728-85FE-7FB1015C0D94}"/>
-    <hyperlink ref="G30" r:id="rId40" display="https://1drv.ms/f/c/209babed470a3e4c/EhZz_Y23VEJJmXrG2gsfomgBDX3lDr8sdbZtlin3GvEEzQ?e=1W6aYb" xr:uid="{360232CC-B9FE-427A-A73F-1247573F29A2}"/>
-    <hyperlink ref="G33" r:id="rId41" display="https://1drv.ms/f/c/209babed470a3e4c/Ek2qu_N-PGhItJdrrdXv1o4Bsl4mygFA2UsN1g7P3JMhCQ?e=qfcPiD" xr:uid="{714B6D77-7F72-494C-8E9F-C33A437398EB}"/>
-    <hyperlink ref="G34" r:id="rId42" display="https://1drv.ms/f/c/209babed470a3e4c/EuDAjMjJKXNDlF4e-7pJ5D8Bz4s4zD9jzPHlE4xB8xnlUQ?e=MCUYhm" xr:uid="{E604B275-C181-49CE-BDF3-D1E3B4D4A13F}"/>
-    <hyperlink ref="G36" r:id="rId43" display="https://1drv.ms/f/c/209babed470a3e4c/ErJqIXg0uKZJt6VL7S1vy_wBOcq0Isix6GB-kkn4BASb6Q?e=AI8WRI" xr:uid="{3AF5118B-88D8-47A7-90A9-9EE24ADB66C5}"/>
-    <hyperlink ref="G41" r:id="rId44" display="https://1drv.ms/f/c/209babed470a3e4c/EvV9i8ySSOxMkxR88ifnFVUBpsMuwLQqrFYs4o8koDS__Q?e=GU26ek" xr:uid="{9A8F431F-A7E8-4A46-860C-4033967B114A}"/>
-    <hyperlink ref="G44" r:id="rId45" display="https://1drv.ms/f/c/209babed470a3e4c/EuUQVbyYqGdNur-riX8-9CMB9_H9UB-mkt9c24sNlfYflw?e=sSFQ9q" xr:uid="{666D7899-B95A-4E90-9D9B-F186B8E3BFE2}"/>
-    <hyperlink ref="G45" r:id="rId46" display="https://1drv.ms/f/c/209babed470a3e4c/Egtu4e5Nad1PoPyy0bBnRzIBP41wCO4GcbBjLk3o9wQd4w?e=5FlCSm" xr:uid="{47FE47C3-9351-4B04-8895-BFA3632AF58D}"/>
-    <hyperlink ref="G46" r:id="rId47" display="https://1drv.ms/f/c/209babed470a3e4c/EsB-yiZzUVdLq4v7FzhKYtYBPodb_Q6m27cwmGfluYRfSw?e=aHyYkm" xr:uid="{CBBA3F4A-1C13-4FF9-AB81-2C2E91592DFB}"/>
+    <hyperlink ref="G31" r:id="rId1" xr:uid="{9AEEF600-EA64-469D-AAC4-BE8CAF7165EF}"/>
+    <hyperlink ref="G36" r:id="rId2" xr:uid="{9D337A9F-1529-4C66-965A-B5C11A7D7052}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{4BBCC510-970F-4240-A223-F3819E090D46}"/>
+    <hyperlink ref="G57" r:id="rId4" xr:uid="{1CC6E836-2D1B-4560-ACD4-5F0870A287C6}"/>
+    <hyperlink ref="G40" r:id="rId5" xr:uid="{DB99509A-C287-4FDC-900F-80A983C61EAC}"/>
+    <hyperlink ref="G34" r:id="rId6" xr:uid="{99397182-F34B-4758-BB8E-8FFE7D6C2C68}"/>
+    <hyperlink ref="G35" r:id="rId7" xr:uid="{0398D22F-0C2E-4754-95AB-87B2EE1B31E2}"/>
+    <hyperlink ref="G37" r:id="rId8" xr:uid="{6BEC1333-FCD1-48E8-BB4B-FE99EC43D918}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{788A73A6-1F8F-49F3-A7B1-E4C0B494C7F1}"/>
+    <hyperlink ref="G48" r:id="rId10" xr:uid="{0731349D-4670-4DC8-A6F4-69BCB533F7F6}"/>
+    <hyperlink ref="G55" r:id="rId11" xr:uid="{36A8CB7B-C229-4AA6-A265-48D491A837A1}"/>
+    <hyperlink ref="G43" r:id="rId12" xr:uid="{4F8B760F-788C-4E9A-9CD7-5CACA1F29A14}"/>
+    <hyperlink ref="G47" r:id="rId13" xr:uid="{DF554996-4431-4E77-9BDB-B42CB0F17A38}"/>
+    <hyperlink ref="G39" r:id="rId14" xr:uid="{5BBE8C47-B6F3-4D03-974C-1AA39672DE8C}"/>
+    <hyperlink ref="G56" r:id="rId15" xr:uid="{C024DBC3-919E-4017-AE81-DDF7164997C6}"/>
+    <hyperlink ref="G12" r:id="rId16" xr:uid="{794F831F-84CA-4685-957E-856A75AADBC7}"/>
+    <hyperlink ref="G45" r:id="rId17" xr:uid="{00C22F3B-4948-4095-9782-8F840E5B93B5}"/>
+    <hyperlink ref="G23" r:id="rId18" display="https://1drv.ms/f/c/209babed470a3e4c/ErgNgPxtJ6xEu8OK6P57n2sBgbdczO4dE1Y6ps1rWNrGIg?e=t0TqyG" xr:uid="{E355BD0B-8CAB-428E-BF11-546527A8E484}"/>
+    <hyperlink ref="G24" r:id="rId19" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=IhMfns" xr:uid="{AAA6FE11-4F3A-4AB6-91F0-2CB7C0269BC0}"/>
+    <hyperlink ref="G28" r:id="rId20" display="https://1drv.ms/f/c/209babed470a3e4c/Eh9eXhZ3YJ1Fq4Ddp9BRnGgB_yuGbVUmh1-IzG9bQ50l1Q?e=5ywND5" xr:uid="{BD8FD547-4D82-467A-B467-4472D9E5B5C5}"/>
+    <hyperlink ref="G46" r:id="rId21" display="https://1drv.ms/f/c/209babed470a3e4c/EjbOWt-H0ANDoZg2N3ePsPwBrhfi0xQrHdEbwSm9UyxBuA?e=M0jeTo" xr:uid="{6B82F018-85F6-4BCB-98B5-28B4B3961BBF}"/>
+    <hyperlink ref="G51" r:id="rId22" display="https://1drv.ms/f/c/209babed470a3e4c/Enb1f2Zh80JJsa0wTiPKMtsBlZ8wac2mmnW7zgz8DCsc7A?e=ha6u2J" xr:uid="{AA4AFE39-C6B9-4816-9AA5-8688C2F76A27}"/>
+    <hyperlink ref="G15" r:id="rId23" display="https://1drv.ms/f/c/209babed470a3e4c/Ev60mJ8FlzROsi-CBSAb-84BMl9_JFECyd621CMs6vcGEw?e=zJqzfu" xr:uid="{621B5839-281F-4C31-B4CA-55DCE423FEBF}"/>
+    <hyperlink ref="G50" r:id="rId24" display="https://1drv.ms/f/c/209babed470a3e4c/EluA9k9918dHsaqdU8s7otABY93QtIA3rDCB9GCvHEA4iA?e=ebCIru" xr:uid="{3686A21D-327F-40EB-816C-374DA8742918}"/>
+    <hyperlink ref="G25" r:id="rId25" display="https://1drv.ms/f/c/209babed470a3e4c/Eg0MBmfkAplMtEqe4aLIHlAB2wTUiwOHN7JYWfh_Xk3H2w?e=JPG9yL" xr:uid="{F84047DF-ABE8-489F-9999-C4238CBDACFA}"/>
+    <hyperlink ref="G13" r:id="rId26" display="https://1drv.ms/f/c/209babed470a3e4c/ElxwHGSJiEBAjSUIm_ZPnjMBjbqJaHcLW1ZQnsl2HVLMBA?e=1EI8jF" xr:uid="{9FFE698A-C3C9-4B33-945A-0AAD804AD9DB}"/>
+    <hyperlink ref="G14" r:id="rId27" display="https://1drv.ms/f/c/209babed470a3e4c/Ev8JmvMqyz5BnxTbXvxKZ9kBNXEcGB29fyU4WP5QM9BWvg?e=vo2t3A" xr:uid="{B046C557-CB0E-46F8-B152-BB86B008C5EF}"/>
+    <hyperlink ref="G16" r:id="rId28" display="https://1drv.ms/f/c/209babed470a3e4c/EhaD8_e1K4BAsKYzfK40pZwBbdjw0A7zkLWJbPvDZXA-uQ?e=JGurJG" xr:uid="{04005D96-8913-4C8A-AFE8-58EFCCD6A129}"/>
+    <hyperlink ref="G17" r:id="rId29" display="https://1drv.ms/f/c/209babed470a3e4c/EsdNgHxW3qNPqvfi6gDlB4sBJ6TG3MnKmM_hNGmnNpkyWw?e=KfCYwx" xr:uid="{94EA7A50-5D40-4531-9A23-17841AF413B0}"/>
+    <hyperlink ref="G18" r:id="rId30" display="https://1drv.ms/f/c/209babed470a3e4c/EoaD8vi9IuxIj7Xp7xlSEh4B2RwGNGD67V54YLBA_pwPzQ?e=a1NbPP" xr:uid="{F57BB664-3A8D-4EB2-A014-7049824A0D9C}"/>
+    <hyperlink ref="G19" r:id="rId31" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=zdHzvJ" xr:uid="{97202BCC-84E9-4EA5-BE72-7AB7423D17D8}"/>
+    <hyperlink ref="G21" r:id="rId32" display="https://1drv.ms/f/c/209babed470a3e4c/ElM2RG9sd1pEl8QdB8fbcnIBiPo9MWS_f4nNaLzD8LShgg?e=0C7JVo" xr:uid="{346BF57F-BB4A-4E5F-B895-79527996CE19}"/>
+    <hyperlink ref="G22" r:id="rId33" display="https://1drv.ms/f/c/209babed470a3e4c/Eqf9r0jy4xxCnftEowdLGrkB8PB8A90tf6Xqv0XSJvaUBw?e=jdKaK7" xr:uid="{E2CEFE54-F536-4A1A-BF7F-5FECFE4A6045}"/>
+    <hyperlink ref="G26" r:id="rId34" display="https://1drv.ms/f/c/209babed470a3e4c/EimFVXRv8PBCgBY0m13q8gUBchDV1bzgJ3g3RZ80ttsZAw?e=fjpibj" xr:uid="{734A9C3D-EF31-444A-8E56-91CFDCD27EEE}"/>
+    <hyperlink ref="G27" r:id="rId35" display="https://1drv.ms/f/c/209babed470a3e4c/EgYwLkk2ezpApVRv5_sd4C4Bbk-bb2t2qHFhjr-VvOBIIg?e=i4x3Is" xr:uid="{9EE31BA0-85CE-4D27-863A-AD4DA183CCB3}"/>
+    <hyperlink ref="G29" r:id="rId36" display="https://1drv.ms/f/c/209babed470a3e4c/Eluo7GQG3UJBq8QRx6llP0sBxKQfG5mVt_sZCx8InWPpLg?e=A6MhFq" xr:uid="{06A77BDC-EDFB-47C9-87EF-F1AF5FA69D9A}"/>
+    <hyperlink ref="G30" r:id="rId37" display="https://1drv.ms/f/c/209babed470a3e4c/EndGVEKmpuxAtGTgSpSo22IBIProPjE7EP1NO5dpwwnX2Q?e=BOQihy" xr:uid="{F2954FD3-515B-47E6-9ADC-16B36C1AF6DA}"/>
+    <hyperlink ref="G32" r:id="rId38" display="https://1drv.ms/f/c/209babed470a3e4c/EojRC7r-zcZFqh4jkRiaIrkBAy2Ut20uY3rLruaK6bcGUA?e=Ophtle" xr:uid="{7F6241B0-569B-4EB2-91A0-A4EDB3A75416}"/>
+    <hyperlink ref="G33" r:id="rId39" display="https://1drv.ms/f/c/209babed470a3e4c/EniUqWlTIR9DkovGNszwf1UBWCUduOByn3wefRKhM9BLLg?e=3yLlHz" xr:uid="{FB8C422B-315F-4728-85FE-7FB1015C0D94}"/>
+    <hyperlink ref="G38" r:id="rId40" display="https://1drv.ms/f/c/209babed470a3e4c/EhZz_Y23VEJJmXrG2gsfomgBDX3lDr8sdbZtlin3GvEEzQ?e=1W6aYb" xr:uid="{360232CC-B9FE-427A-A73F-1247573F29A2}"/>
+    <hyperlink ref="G41" r:id="rId41" display="https://1drv.ms/f/c/209babed470a3e4c/Ek2qu_N-PGhItJdrrdXv1o4Bsl4mygFA2UsN1g7P3JMhCQ?e=qfcPiD" xr:uid="{714B6D77-7F72-494C-8E9F-C33A437398EB}"/>
+    <hyperlink ref="G42" r:id="rId42" display="https://1drv.ms/f/c/209babed470a3e4c/EuDAjMjJKXNDlF4e-7pJ5D8Bz4s4zD9jzPHlE4xB8xnlUQ?e=MCUYhm" xr:uid="{E604B275-C181-49CE-BDF3-D1E3B4D4A13F}"/>
+    <hyperlink ref="G44" r:id="rId43" display="https://1drv.ms/f/c/209babed470a3e4c/ErJqIXg0uKZJt6VL7S1vy_wBOcq0Isix6GB-kkn4BASb6Q?e=AI8WRI" xr:uid="{3AF5118B-88D8-47A7-90A9-9EE24ADB66C5}"/>
+    <hyperlink ref="G49" r:id="rId44" display="https://1drv.ms/f/c/209babed470a3e4c/EvV9i8ySSOxMkxR88ifnFVUBpsMuwLQqrFYs4o8koDS__Q?e=GU26ek" xr:uid="{9A8F431F-A7E8-4A46-860C-4033967B114A}"/>
+    <hyperlink ref="G52" r:id="rId45" display="https://1drv.ms/f/c/209babed470a3e4c/EuUQVbyYqGdNur-riX8-9CMB9_H9UB-mkt9c24sNlfYflw?e=sSFQ9q" xr:uid="{666D7899-B95A-4E90-9D9B-F186B8E3BFE2}"/>
+    <hyperlink ref="G53" r:id="rId46" display="https://1drv.ms/f/c/209babed470a3e4c/Egtu4e5Nad1PoPyy0bBnRzIBP41wCO4GcbBjLk3o9wQd4w?e=5FlCSm" xr:uid="{47FE47C3-9351-4B04-8895-BFA3632AF58D}"/>
+    <hyperlink ref="G54" r:id="rId47" display="https://1drv.ms/f/c/209babed470a3e4c/EsB-yiZzUVdLq4v7FzhKYtYBPodb_Q6m27cwmGfluYRfSw?e=aHyYkm" xr:uid="{CBBA3F4A-1C13-4FF9-AB81-2C2E91592DFB}"/>
     <hyperlink ref="G2" r:id="rId48" display="https://1drv.ms/f/c/209babed470a3e4c/Ep6H1gr1kl5EmazbHCMRYT0BGQtAxr2f7ISNu5Q9ebXwsQ?e=OO9Vdb" xr:uid="{34133962-1546-4B90-947D-6065B4CB05A8}"/>
-    <hyperlink ref="H49" r:id="rId49" xr:uid="{354555A1-860A-4732-9589-383F5D097FF5}"/>
+    <hyperlink ref="G3" r:id="rId49" display="https://1drv.ms/f/c/209babed470a3e4c/EkOPVrw-4SpLnrV28VdgJJ4BcI0UYhglgILR6UCKfe-y5w?e=XpfnOB" xr:uid="{036787C5-AB8C-4A33-B182-32598262E422}"/>
+    <hyperlink ref="G4" r:id="rId50" display="https://1drv.ms/f/c/209babed470a3e4c/EkOPVrw-4SpLnrV28VdgJJ4BcI0UYhglgILR6UCKfe-y5w?e=YB6Kb5" xr:uid="{C2ACDC91-8DC1-43BA-9C99-D8E0ACB57AA1}"/>
+    <hyperlink ref="G5" r:id="rId51" display="https://1drv.ms/f/c/209babed470a3e4c/EtgSr5X5kkZGmmBOiCrp6iwBpISslyXYa2uBYEEYijLmQQ?e=DIWn3b" xr:uid="{F618BAC9-3DF5-4644-80EE-225301C95422}"/>
+    <hyperlink ref="G6" r:id="rId52" display="https://1drv.ms/f/c/209babed470a3e4c/ElXYAsdcHCxCnDjayPVAFAQBJAHYmnpvbLdG3XxDwDgWxw?e=SwiFNf" xr:uid="{D62CCD86-380F-49B2-A20E-848F7AF5140E}"/>
+    <hyperlink ref="G7" r:id="rId53" display="https://1drv.ms/f/c/209babed470a3e4c/ElOGAGLd15BEjnma6PeqFzQBN7zeThZRtjt7-XtZfsSF6w?e=LKyTBs" xr:uid="{AE596FB4-7953-474E-A5E5-6E1ECFFC4E56}"/>
+    <hyperlink ref="G8" r:id="rId54" display="https://1drv.ms/f/c/209babed470a3e4c/Et5m1JkLuo1MppsaTidZTz4B33f3yOdOUXQczfRD-aG5_Q?e=cleh3v" xr:uid="{9614ACB3-825F-4326-957D-64F3A95048F8}"/>
+    <hyperlink ref="G9" r:id="rId55" display="https://1drv.ms/f/c/209babed470a3e4c/EkUmQ3XPtJ1LgDNTWT9OYnUBjNUsnlX8u8wYLTXhyYD4mw?e=TMwxXC" xr:uid="{7B786209-1C97-4B07-A5DF-DBAFD4A39FA2}"/>
+    <hyperlink ref="G10" r:id="rId56" display="https://1drv.ms/f/c/209babed470a3e4c/EpPurcS5f6lLg_oEYmlRxUsBLhXOXkZ4nJ40UhKYbp9qjQ?e=aCZmU2" xr:uid="{7BCBFC24-C3E1-43B0-A7DF-AA041B1986B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E63BEE-6E35-407B-B4D4-A560D115A6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ACD953-8FC0-4443-8C52-15C886E10F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -707,9 +707,6 @@
     <t>WhatsApp Image 2025-04-16 at 19.46.03_713bbc4c.jpg</t>
   </si>
   <si>
-    <t>Mahira Bhradiya</t>
-  </si>
-  <si>
     <t>+91 99609 94823</t>
   </si>
   <si>
@@ -795,6 +792,12 @@
   </si>
   <si>
     <t>+91 95479 16073</t>
+  </si>
+  <si>
+    <t>Mahira Bhardiya</t>
+  </si>
+  <si>
+    <t>Mahira Bharadiya</t>
   </si>
 </sst>
 </file>
@@ -859,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -879,7 +882,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1279,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,31 +1411,31 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1445,19 +1447,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>67</v>
@@ -1466,7 +1468,7 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -1478,28 +1480,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1511,28 +1513,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" t="s">
         <v>236</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L7" t="s">
-        <v>237</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -1544,31 +1546,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1580,21 +1582,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11"/>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="L9" t="s">
         <v>245</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="L9" t="s">
-        <v>246</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -1606,28 +1607,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" t="s">
         <v>248</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J10" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" t="s">
-        <v>249</v>
       </c>
       <c r="M10">
         <v>2</v>
@@ -3242,13 +3243,13 @@
     <hyperlink ref="G54" r:id="rId47" display="https://1drv.ms/f/c/209babed470a3e4c/EsB-yiZzUVdLq4v7FzhKYtYBPodb_Q6m27cwmGfluYRfSw?e=aHyYkm" xr:uid="{CBBA3F4A-1C13-4FF9-AB81-2C2E91592DFB}"/>
     <hyperlink ref="G2" r:id="rId48" display="https://1drv.ms/f/c/209babed470a3e4c/Ep6H1gr1kl5EmazbHCMRYT0BGQtAxr2f7ISNu5Q9ebXwsQ?e=OO9Vdb" xr:uid="{34133962-1546-4B90-947D-6065B4CB05A8}"/>
     <hyperlink ref="G3" r:id="rId49" display="https://1drv.ms/f/c/209babed470a3e4c/EkOPVrw-4SpLnrV28VdgJJ4BcI0UYhglgILR6UCKfe-y5w?e=XpfnOB" xr:uid="{036787C5-AB8C-4A33-B182-32598262E422}"/>
-    <hyperlink ref="G4" r:id="rId50" display="https://1drv.ms/f/c/209babed470a3e4c/EkOPVrw-4SpLnrV28VdgJJ4BcI0UYhglgILR6UCKfe-y5w?e=YB6Kb5" xr:uid="{C2ACDC91-8DC1-43BA-9C99-D8E0ACB57AA1}"/>
-    <hyperlink ref="G5" r:id="rId51" display="https://1drv.ms/f/c/209babed470a3e4c/EtgSr5X5kkZGmmBOiCrp6iwBpISslyXYa2uBYEEYijLmQQ?e=DIWn3b" xr:uid="{F618BAC9-3DF5-4644-80EE-225301C95422}"/>
-    <hyperlink ref="G6" r:id="rId52" display="https://1drv.ms/f/c/209babed470a3e4c/ElXYAsdcHCxCnDjayPVAFAQBJAHYmnpvbLdG3XxDwDgWxw?e=SwiFNf" xr:uid="{D62CCD86-380F-49B2-A20E-848F7AF5140E}"/>
-    <hyperlink ref="G7" r:id="rId53" display="https://1drv.ms/f/c/209babed470a3e4c/ElOGAGLd15BEjnma6PeqFzQBN7zeThZRtjt7-XtZfsSF6w?e=LKyTBs" xr:uid="{AE596FB4-7953-474E-A5E5-6E1ECFFC4E56}"/>
-    <hyperlink ref="G8" r:id="rId54" display="https://1drv.ms/f/c/209babed470a3e4c/Et5m1JkLuo1MppsaTidZTz4B33f3yOdOUXQczfRD-aG5_Q?e=cleh3v" xr:uid="{9614ACB3-825F-4326-957D-64F3A95048F8}"/>
-    <hyperlink ref="G9" r:id="rId55" display="https://1drv.ms/f/c/209babed470a3e4c/EkUmQ3XPtJ1LgDNTWT9OYnUBjNUsnlX8u8wYLTXhyYD4mw?e=TMwxXC" xr:uid="{7B786209-1C97-4B07-A5DF-DBAFD4A39FA2}"/>
-    <hyperlink ref="G10" r:id="rId56" display="https://1drv.ms/f/c/209babed470a3e4c/EpPurcS5f6lLg_oEYmlRxUsBLhXOXkZ4nJ40UhKYbp9qjQ?e=aCZmU2" xr:uid="{7BCBFC24-C3E1-43B0-A7DF-AA041B1986B5}"/>
+    <hyperlink ref="G5" r:id="rId50" display="https://1drv.ms/f/c/209babed470a3e4c/EtgSr5X5kkZGmmBOiCrp6iwBpISslyXYa2uBYEEYijLmQQ?e=DIWn3b" xr:uid="{F618BAC9-3DF5-4644-80EE-225301C95422}"/>
+    <hyperlink ref="G6" r:id="rId51" display="https://1drv.ms/f/c/209babed470a3e4c/ElXYAsdcHCxCnDjayPVAFAQBJAHYmnpvbLdG3XxDwDgWxw?e=SwiFNf" xr:uid="{D62CCD86-380F-49B2-A20E-848F7AF5140E}"/>
+    <hyperlink ref="G7" r:id="rId52" display="https://1drv.ms/f/c/209babed470a3e4c/ElOGAGLd15BEjnma6PeqFzQBN7zeThZRtjt7-XtZfsSF6w?e=LKyTBs" xr:uid="{AE596FB4-7953-474E-A5E5-6E1ECFFC4E56}"/>
+    <hyperlink ref="G8" r:id="rId53" display="https://1drv.ms/f/c/209babed470a3e4c/Et5m1JkLuo1MppsaTidZTz4B33f3yOdOUXQczfRD-aG5_Q?e=cleh3v" xr:uid="{9614ACB3-825F-4326-957D-64F3A95048F8}"/>
+    <hyperlink ref="G9" r:id="rId54" display="https://1drv.ms/f/c/209babed470a3e4c/EkUmQ3XPtJ1LgDNTWT9OYnUBjNUsnlX8u8wYLTXhyYD4mw?e=TMwxXC" xr:uid="{7B786209-1C97-4B07-A5DF-DBAFD4A39FA2}"/>
+    <hyperlink ref="G10" r:id="rId55" display="https://1drv.ms/f/c/209babed470a3e4c/EpPurcS5f6lLg_oEYmlRxUsBLhXOXkZ4nJ40UhKYbp9qjQ?e=aCZmU2" xr:uid="{7BCBFC24-C3E1-43B0-A7DF-AA041B1986B5}"/>
+    <hyperlink ref="G4" r:id="rId56" display="https://1drv.ms/f/c/209babed470a3e4c/EuangrSxDrpKkvoTPxTPb7gBb8L_N69nzAo7lSq1Q37ltQ?e=nHQbzf" xr:uid="{024DFD28-1E06-4EC8-9922-882A49325DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId57"/>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ACD953-8FC0-4443-8C52-15C886E10F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F68AD6-7031-45BD-855A-DAA8CB0CDFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F68AD6-7031-45BD-855A-DAA8CB0CDFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D432D-72B9-4020-B8B4-A4B875252244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -792,9 +792,6 @@
   </si>
   <si>
     <t>+91 95479 16073</t>
-  </si>
-  <si>
-    <t>Mahira Bhardiya</t>
   </si>
   <si>
     <t>Mahira Bharadiya</t>
@@ -1282,7 +1279,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1420,7 @@
         <v>223</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>226</v>

--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D432D-72B9-4020-B8B4-A4B875252244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884E306-1564-41DE-8195-2D6AB3DC4C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="261">
   <si>
     <t>Name</t>
   </si>
@@ -795,13 +795,37 @@
   </si>
   <si>
     <t>Mahira Bharadiya</t>
+  </si>
+  <si>
+    <t>Raj Pawar</t>
+  </si>
+  <si>
+    <t>+91 87674 50493</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-18 at 01.35.02_85e6c968.jpg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-17 at 19.03.00_44f4dd58.jpg</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Divya Rane</t>
+  </si>
+  <si>
+    <t>+91 84250 15820</t>
+  </si>
+  <si>
+    <t>diyarane_official</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +855,12 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -859,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -880,6 +910,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,8 +965,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:M57" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:M57" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:M59" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:M59" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">
     <sortCondition descending="1" ref="M1:M57"/>
   </sortState>
@@ -1276,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,6 +3219,73 @@
       </c>
       <c r="M57">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="12">
+        <v>17</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
+        <v>255</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="12">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="J59" t="s">
+        <v>257</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="L59" t="s">
+        <v>256</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3247,11 +3346,13 @@
     <hyperlink ref="G9" r:id="rId54" display="https://1drv.ms/f/c/209babed470a3e4c/EkUmQ3XPtJ1LgDNTWT9OYnUBjNUsnlX8u8wYLTXhyYD4mw?e=TMwxXC" xr:uid="{7B786209-1C97-4B07-A5DF-DBAFD4A39FA2}"/>
     <hyperlink ref="G10" r:id="rId55" display="https://1drv.ms/f/c/209babed470a3e4c/EpPurcS5f6lLg_oEYmlRxUsBLhXOXkZ4nJ40UhKYbp9qjQ?e=aCZmU2" xr:uid="{7BCBFC24-C3E1-43B0-A7DF-AA041B1986B5}"/>
     <hyperlink ref="G4" r:id="rId56" display="https://1drv.ms/f/c/209babed470a3e4c/EuangrSxDrpKkvoTPxTPb7gBb8L_N69nzAo7lSq1Q37ltQ?e=nHQbzf" xr:uid="{024DFD28-1E06-4EC8-9922-882A49325DAB}"/>
+    <hyperlink ref="G58" r:id="rId57" display="https://1drv.ms/f/c/209babed470a3e4c/EiR8rSKfeTBMpxhcKLw3IokB81VxkVq9QnCnhks18oT_Yw?e=KNACOL" xr:uid="{014DF7A1-ADC7-4BA7-BAA4-1803CBE6FD0C}"/>
+    <hyperlink ref="G59" r:id="rId58" display="https://1drv.ms/f/c/209babed470a3e4c/EuU8b-hwVT1LsirVkkfdCksBfsGBRBg4LZv2z6Vajerk2A?e=w5EhdS" xr:uid="{1592C261-595D-4BEC-A334-0997D8CDCDAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/Casting Replies Log.xlsx
+++ b/assets/Casting Replies Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Opera Downloads\Casting Replies Webpage\casting-log\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884E306-1564-41DE-8195-2D6AB3DC4C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCA1002-C175-4653-B8A1-2DAFB7ECB73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="304">
   <si>
     <t>Name</t>
   </si>
@@ -819,6 +819,135 @@
   </si>
   <si>
     <t>diyarane_official</t>
+  </si>
+  <si>
+    <t>Sakshi Gore</t>
+  </si>
+  <si>
+    <t>+91 86002 19224</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0004.jpg</t>
+  </si>
+  <si>
+    <t>4'9</t>
+  </si>
+  <si>
+    <t>Aliasgar Amareliwala</t>
+  </si>
+  <si>
+    <t>+91 96198 25930</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0012.jpg</t>
+  </si>
+  <si>
+    <t>Mohit Singh</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-18 at 22.42.00_43835a63.jpg</t>
+  </si>
+  <si>
+    <t>+91 80588 09377</t>
+  </si>
+  <si>
+    <t>Anjali Joshi</t>
+  </si>
+  <si>
+    <t>+91 98223 96678</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0021.jpg</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0033.jpg</t>
+  </si>
+  <si>
+    <t>Karron Malik</t>
+  </si>
+  <si>
+    <t>+91 95996 97279</t>
+  </si>
+  <si>
+    <t>Govinda Jadiya</t>
+  </si>
+  <si>
+    <t>+91 75829 61782</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-19 at 08.18.41_e92bff77.jpg</t>
+  </si>
+  <si>
+    <t>Yatin Patil</t>
+  </si>
+  <si>
+    <t>+91 98819 27723</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0038.jpg</t>
+  </si>
+  <si>
+    <t>Jyoti Apte</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0047.jpg</t>
+  </si>
+  <si>
+    <t>+91 86686 25241</t>
+  </si>
+  <si>
+    <t>Niraj Rokade</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-19 at 11.17.03_d85d4ba3.jpg</t>
+  </si>
+  <si>
+    <t>+91 91364 14887</t>
+  </si>
+  <si>
+    <t>nirajrokade_21</t>
+  </si>
+  <si>
+    <t>Preet Kaur</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0062.jpg</t>
+  </si>
+  <si>
+    <t>theamritpreetkaur</t>
+  </si>
+  <si>
+    <t>+91 79734 91853</t>
+  </si>
+  <si>
+    <t>Varad Nagwekar</t>
+  </si>
+  <si>
+    <t>+91 99308 34327</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-19 at 13.31.37_862afd46.jpg</t>
+  </si>
+  <si>
+    <t>Ajit Khandagale</t>
+  </si>
+  <si>
+    <t>IMG-20250420-WA0101.jpg</t>
+  </si>
+  <si>
+    <t>+91 95187 54720</t>
+  </si>
+  <si>
+    <t>Sidhan Bolane</t>
+  </si>
+  <si>
+    <t>+91 83904 65822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai </t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2025-04-19 at 18.06.15_a709e372.jpg</t>
   </si>
 </sst>
 </file>
@@ -910,8 +1039,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,10 +1094,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:M59" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:M59" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M57">
-    <sortCondition descending="1" ref="M1:M57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}" name="Table1" displayName="Table1" ref="A1:M72" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:M72" xr:uid="{2BDCE7E8-D423-4F9C-AFDB-9BF7D5B2BCF2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M72">
+    <sortCondition descending="1" ref="M1:M72"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{90CA0A1D-9CF0-4047-8573-486D61BDB7F1}" name="No">
@@ -1308,16 +1437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1376,32 +1505,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>217</v>
+      <c r="D2" s="13">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="J2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" t="s">
-        <v>219</v>
+        <v>261</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="L2" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1410,64 +1535,60 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>14</v>
+      <c r="D3" s="13">
+        <v>16</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>265</v>
+      </c>
+      <c r="H3" s="11"/>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50</v>
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="13">
+        <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="H4" s="11"/>
       <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
-        <v>225</v>
-      </c>
       <c r="L4" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1476,31 +1597,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>60</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="H5" s="11"/>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1509,31 +1628,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>25</v>
+      <c r="D6" s="13">
+        <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="H6" s="11"/>
       <c r="J6" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1542,31 +1659,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="13">
+        <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>238</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1575,34 +1690,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>240</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="13">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>241</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1611,23 +1721,26 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>246</v>
+      <c r="D9" s="13">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="H9" s="11"/>
       <c r="L9" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1636,31 +1749,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>16</v>
+      <c r="D10" s="13">
+        <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J10" t="s">
-        <v>249</v>
+        <v>286</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="K10" t="s">
+        <v>289</v>
       </c>
       <c r="L10" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1669,34 +1780,32 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
+      <c r="D11" s="13">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1705,26 +1814,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="13">
+        <v>19</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1733,31 +1845,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>192</v>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1766,29 +1874,27 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>152</v>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1797,64 +1903,65 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>257</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1863,32 +1970,32 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17">
-        <v>70</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>216</v>
+      </c>
+      <c r="K17" t="s">
+        <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1897,70 +2004,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="J18" t="s">
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1969,37 +2070,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2008,34 +2103,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>199</v>
+        <v>25</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2044,34 +2136,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>115</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22">
-        <v>48.4</v>
+        <v>238</v>
+      </c>
+      <c r="J22" t="s">
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2080,34 +2169,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2116,34 +2205,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>95</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H24" s="11"/>
       <c r="L24" t="s">
-        <v>96</v>
+        <v>245</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2152,34 +2230,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2188,28 +2263,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2221,25 +2299,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>156</v>
+        <v>30</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>154</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H27" s="7"/>
       <c r="L27" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2251,28 +2327,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2284,28 +2360,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H29" s="7"/>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2317,26 +2391,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="J30" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2348,28 +2424,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2381,26 +2457,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32">
+        <v>70</v>
+      </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2412,28 +2491,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2445,20 +2527,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>210</v>
+      </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2470,26 +2563,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="J35" t="s">
         <v>27</v>
       </c>
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2501,35 +2602,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" t="s">
-        <v>13</v>
+        <v>198</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2541,28 +2638,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="I37">
+        <v>48.4</v>
       </c>
       <c r="L37" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2574,28 +2674,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K38" t="s">
-        <v>204</v>
+        <v>89</v>
+      </c>
+      <c r="I38">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
+        <v>90</v>
       </c>
       <c r="L38" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2607,23 +2710,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="J39" s="5" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>95</v>
       </c>
       <c r="L39" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2635,26 +2746,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>129</v>
+      </c>
+      <c r="K40" t="s">
+        <v>130</v>
       </c>
       <c r="L40" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2666,31 +2782,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2702,31 +2815,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42">
-        <v>55</v>
-      </c>
-      <c r="J42" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="L42" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2738,20 +2845,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" t="s">
+        <v>99</v>
+      </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2763,29 +2878,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44">
-        <v>23</v>
+        <v>102</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="J44" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2797,28 +2911,26 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D45">
-        <v>22</v>
-      </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H45" s="7"/>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>183</v>
+      </c>
+      <c r="K45" t="s">
+        <v>184</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2830,26 +2942,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2861,31 +2975,26 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H47" s="9"/>
       <c r="J47" t="s">
         <v>27</v>
       </c>
-      <c r="K47" t="s">
-        <v>57</v>
-      </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2897,28 +3006,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2930,28 +3039,20 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J49" t="s">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H49" s="7"/>
       <c r="L49" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -2963,28 +3064,26 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H50" s="7"/>
       <c r="J50" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -2996,26 +3095,35 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="H51" s="7"/>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3027,31 +3135,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H52" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3063,28 +3168,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J53" t="s">
-        <v>27</v>
+        <v>173</v>
+      </c>
+      <c r="K53" t="s">
+        <v>204</v>
       </c>
       <c r="L53" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3096,28 +3201,23 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="J54" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3129,34 +3229,26 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55">
-        <v>66</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H55" s="7"/>
       <c r="J55" t="s">
-        <v>47</v>
-      </c>
-      <c r="K55" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3168,20 +3260,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
       <c r="L56" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3193,29 +3296,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
       <c r="J57" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3227,132 +3332,567 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="12">
-        <v>17</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>254</v>
+      <c r="E58" t="s">
+        <v>53</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="L58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59">
+        <v>23</v>
+      </c>
+      <c r="J59" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" t="s">
+        <v>207</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="J61" t="s">
+        <v>120</v>
+      </c>
+      <c r="L61" t="s">
+        <v>118</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" t="s">
         <v>27</v>
       </c>
-      <c r="L58" t="s">
-        <v>255</v>
-      </c>
-      <c r="M58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+      <c r="K62" t="s">
+        <v>57</v>
+      </c>
+      <c r="L62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>47</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>81</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" t="s">
+        <v>161</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>158</v>
+      </c>
+      <c r="L65" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="J66" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H67" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67">
+        <v>59</v>
+      </c>
+      <c r="J67" t="s">
+        <v>195</v>
+      </c>
+      <c r="L67" t="s">
+        <v>197</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>138</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" t="s">
+        <v>170</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70">
+        <v>66</v>
+      </c>
+      <c r="J70" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" t="s">
+        <v>80</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="12">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="J59" t="s">
-        <v>257</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="L59" t="s">
-        <v>256</v>
-      </c>
-      <c r="M59">
-        <v>3</v>
+      <c r="E71" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="L71" t="s">
+        <v>84</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>ROW() - ROW(Table1[[#Headers],[No]])</f>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G31" r:id="rId1" xr:uid="{9AEEF600-EA64-469D-AAC4-BE8CAF7165EF}"/>
-    <hyperlink ref="G36" r:id="rId2" xr:uid="{9D337A9F-1529-4C66-965A-B5C11A7D7052}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{4BBCC510-970F-4240-A223-F3819E090D46}"/>
-    <hyperlink ref="G57" r:id="rId4" xr:uid="{1CC6E836-2D1B-4560-ACD4-5F0870A287C6}"/>
-    <hyperlink ref="G40" r:id="rId5" xr:uid="{DB99509A-C287-4FDC-900F-80A983C61EAC}"/>
-    <hyperlink ref="G34" r:id="rId6" xr:uid="{99397182-F34B-4758-BB8E-8FFE7D6C2C68}"/>
-    <hyperlink ref="G35" r:id="rId7" xr:uid="{0398D22F-0C2E-4754-95AB-87B2EE1B31E2}"/>
-    <hyperlink ref="G37" r:id="rId8" xr:uid="{6BEC1333-FCD1-48E8-BB4B-FE99EC43D918}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{788A73A6-1F8F-49F3-A7B1-E4C0B494C7F1}"/>
-    <hyperlink ref="G48" r:id="rId10" xr:uid="{0731349D-4670-4DC8-A6F4-69BCB533F7F6}"/>
-    <hyperlink ref="G55" r:id="rId11" xr:uid="{36A8CB7B-C229-4AA6-A265-48D491A837A1}"/>
-    <hyperlink ref="G43" r:id="rId12" xr:uid="{4F8B760F-788C-4E9A-9CD7-5CACA1F29A14}"/>
-    <hyperlink ref="G47" r:id="rId13" xr:uid="{DF554996-4431-4E77-9BDB-B42CB0F17A38}"/>
-    <hyperlink ref="G39" r:id="rId14" xr:uid="{5BBE8C47-B6F3-4D03-974C-1AA39672DE8C}"/>
-    <hyperlink ref="G56" r:id="rId15" xr:uid="{C024DBC3-919E-4017-AE81-DDF7164997C6}"/>
-    <hyperlink ref="G12" r:id="rId16" xr:uid="{794F831F-84CA-4685-957E-856A75AADBC7}"/>
-    <hyperlink ref="G45" r:id="rId17" xr:uid="{00C22F3B-4948-4095-9782-8F840E5B93B5}"/>
-    <hyperlink ref="G23" r:id="rId18" display="https://1drv.ms/f/c/209babed470a3e4c/ErgNgPxtJ6xEu8OK6P57n2sBgbdczO4dE1Y6ps1rWNrGIg?e=t0TqyG" xr:uid="{E355BD0B-8CAB-428E-BF11-546527A8E484}"/>
-    <hyperlink ref="G24" r:id="rId19" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=IhMfns" xr:uid="{AAA6FE11-4F3A-4AB6-91F0-2CB7C0269BC0}"/>
-    <hyperlink ref="G28" r:id="rId20" display="https://1drv.ms/f/c/209babed470a3e4c/Eh9eXhZ3YJ1Fq4Ddp9BRnGgB_yuGbVUmh1-IzG9bQ50l1Q?e=5ywND5" xr:uid="{BD8FD547-4D82-467A-B467-4472D9E5B5C5}"/>
-    <hyperlink ref="G46" r:id="rId21" display="https://1drv.ms/f/c/209babed470a3e4c/EjbOWt-H0ANDoZg2N3ePsPwBrhfi0xQrHdEbwSm9UyxBuA?e=M0jeTo" xr:uid="{6B82F018-85F6-4BCB-98B5-28B4B3961BBF}"/>
-    <hyperlink ref="G51" r:id="rId22" display="https://1drv.ms/f/c/209babed470a3e4c/Enb1f2Zh80JJsa0wTiPKMtsBlZ8wac2mmnW7zgz8DCsc7A?e=ha6u2J" xr:uid="{AA4AFE39-C6B9-4816-9AA5-8688C2F76A27}"/>
-    <hyperlink ref="G15" r:id="rId23" display="https://1drv.ms/f/c/209babed470a3e4c/Ev60mJ8FlzROsi-CBSAb-84BMl9_JFECyd621CMs6vcGEw?e=zJqzfu" xr:uid="{621B5839-281F-4C31-B4CA-55DCE423FEBF}"/>
-    <hyperlink ref="G50" r:id="rId24" display="https://1drv.ms/f/c/209babed470a3e4c/EluA9k9918dHsaqdU8s7otABY93QtIA3rDCB9GCvHEA4iA?e=ebCIru" xr:uid="{3686A21D-327F-40EB-816C-374DA8742918}"/>
-    <hyperlink ref="G25" r:id="rId25" display="https://1drv.ms/f/c/209babed470a3e4c/Eg0MBmfkAplMtEqe4aLIHlAB2wTUiwOHN7JYWfh_Xk3H2w?e=JPG9yL" xr:uid="{F84047DF-ABE8-489F-9999-C4238CBDACFA}"/>
-    <hyperlink ref="G13" r:id="rId26" display="https://1drv.ms/f/c/209babed470a3e4c/ElxwHGSJiEBAjSUIm_ZPnjMBjbqJaHcLW1ZQnsl2HVLMBA?e=1EI8jF" xr:uid="{9FFE698A-C3C9-4B33-945A-0AAD804AD9DB}"/>
-    <hyperlink ref="G14" r:id="rId27" display="https://1drv.ms/f/c/209babed470a3e4c/Ev8JmvMqyz5BnxTbXvxKZ9kBNXEcGB29fyU4WP5QM9BWvg?e=vo2t3A" xr:uid="{B046C557-CB0E-46F8-B152-BB86B008C5EF}"/>
-    <hyperlink ref="G16" r:id="rId28" display="https://1drv.ms/f/c/209babed470a3e4c/EhaD8_e1K4BAsKYzfK40pZwBbdjw0A7zkLWJbPvDZXA-uQ?e=JGurJG" xr:uid="{04005D96-8913-4C8A-AFE8-58EFCCD6A129}"/>
-    <hyperlink ref="G17" r:id="rId29" display="https://1drv.ms/f/c/209babed470a3e4c/EsdNgHxW3qNPqvfi6gDlB4sBJ6TG3MnKmM_hNGmnNpkyWw?e=KfCYwx" xr:uid="{94EA7A50-5D40-4531-9A23-17841AF413B0}"/>
-    <hyperlink ref="G18" r:id="rId30" display="https://1drv.ms/f/c/209babed470a3e4c/EoaD8vi9IuxIj7Xp7xlSEh4B2RwGNGD67V54YLBA_pwPzQ?e=a1NbPP" xr:uid="{F57BB664-3A8D-4EB2-A014-7049824A0D9C}"/>
-    <hyperlink ref="G19" r:id="rId31" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=zdHzvJ" xr:uid="{97202BCC-84E9-4EA5-BE72-7AB7423D17D8}"/>
-    <hyperlink ref="G21" r:id="rId32" display="https://1drv.ms/f/c/209babed470a3e4c/ElM2RG9sd1pEl8QdB8fbcnIBiPo9MWS_f4nNaLzD8LShgg?e=0C7JVo" xr:uid="{346BF57F-BB4A-4E5F-B895-79527996CE19}"/>
-    <hyperlink ref="G22" r:id="rId33" display="https://1drv.ms/f/c/209babed470a3e4c/Eqf9r0jy4xxCnftEowdLGrkB8PB8A90tf6Xqv0XSJvaUBw?e=jdKaK7" xr:uid="{E2CEFE54-F536-4A1A-BF7F-5FECFE4A6045}"/>
-    <hyperlink ref="G26" r:id="rId34" display="https://1drv.ms/f/c/209babed470a3e4c/EimFVXRv8PBCgBY0m13q8gUBchDV1bzgJ3g3RZ80ttsZAw?e=fjpibj" xr:uid="{734A9C3D-EF31-444A-8E56-91CFDCD27EEE}"/>
-    <hyperlink ref="G27" r:id="rId35" display="https://1drv.ms/f/c/209babed470a3e4c/EgYwLkk2ezpApVRv5_sd4C4Bbk-bb2t2qHFhjr-VvOBIIg?e=i4x3Is" xr:uid="{9EE31BA0-85CE-4D27-863A-AD4DA183CCB3}"/>
-    <hyperlink ref="G29" r:id="rId36" display="https://1drv.ms/f/c/209babed470a3e4c/Eluo7GQG3UJBq8QRx6llP0sBxKQfG5mVt_sZCx8InWPpLg?e=A6MhFq" xr:uid="{06A77BDC-EDFB-47C9-87EF-F1AF5FA69D9A}"/>
-    <hyperlink ref="G30" r:id="rId37" display="https://1drv.ms/f/c/209babed470a3e4c/EndGVEKmpuxAtGTgSpSo22IBIProPjE7EP1NO5dpwwnX2Q?e=BOQihy" xr:uid="{F2954FD3-515B-47E6-9ADC-16B36C1AF6DA}"/>
-    <hyperlink ref="G32" r:id="rId38" display="https://1drv.ms/f/c/209babed470a3e4c/EojRC7r-zcZFqh4jkRiaIrkBAy2Ut20uY3rLruaK6bcGUA?e=Ophtle" xr:uid="{7F6241B0-569B-4EB2-91A0-A4EDB3A75416}"/>
-    <hyperlink ref="G33" r:id="rId39" display="https://1drv.ms/f/c/209babed470a3e4c/EniUqWlTIR9DkovGNszwf1UBWCUduOByn3wefRKhM9BLLg?e=3yLlHz" xr:uid="{FB8C422B-315F-4728-85FE-7FB1015C0D94}"/>
-    <hyperlink ref="G38" r:id="rId40" display="https://1drv.ms/f/c/209babed470a3e4c/EhZz_Y23VEJJmXrG2gsfomgBDX3lDr8sdbZtlin3GvEEzQ?e=1W6aYb" xr:uid="{360232CC-B9FE-427A-A73F-1247573F29A2}"/>
-    <hyperlink ref="G41" r:id="rId41" display="https://1drv.ms/f/c/209babed470a3e4c/Ek2qu_N-PGhItJdrrdXv1o4Bsl4mygFA2UsN1g7P3JMhCQ?e=qfcPiD" xr:uid="{714B6D77-7F72-494C-8E9F-C33A437398EB}"/>
-    <hyperlink ref="G42" r:id="rId42" display="https://1drv.ms/f/c/209babed470a3e4c/EuDAjMjJKXNDlF4e-7pJ5D8Bz4s4zD9jzPHlE4xB8xnlUQ?e=MCUYhm" xr:uid="{E604B275-C181-49CE-BDF3-D1E3B4D4A13F}"/>
-    <hyperlink ref="G44" r:id="rId43" display="https://1drv.ms/f/c/209babed470a3e4c/ErJqIXg0uKZJt6VL7S1vy_wBOcq0Isix6GB-kkn4BASb6Q?e=AI8WRI" xr:uid="{3AF5118B-88D8-47A7-90A9-9EE24ADB66C5}"/>
-    <hyperlink ref="G49" r:id="rId44" display="https://1drv.ms/f/c/209babed470a3e4c/EvV9i8ySSOxMkxR88ifnFVUBpsMuwLQqrFYs4o8koDS__Q?e=GU26ek" xr:uid="{9A8F431F-A7E8-4A46-860C-4033967B114A}"/>
-    <hyperlink ref="G52" r:id="rId45" display="https://1drv.ms/f/c/209babed470a3e4c/EuUQVbyYqGdNur-riX8-9CMB9_H9UB-mkt9c24sNlfYflw?e=sSFQ9q" xr:uid="{666D7899-B95A-4E90-9D9B-F186B8E3BFE2}"/>
-    <hyperlink ref="G53" r:id="rId46" display="https://1drv.ms/f/c/209babed470a3e4c/Egtu4e5Nad1PoPyy0bBnRzIBP41wCO4GcbBjLk3o9wQd4w?e=5FlCSm" xr:uid="{47FE47C3-9351-4B04-8895-BFA3632AF58D}"/>
-    <hyperlink ref="G54" r:id="rId47" display="https://1drv.ms/f/c/209babed470a3e4c/EsB-yiZzUVdLq4v7FzhKYtYBPodb_Q6m27cwmGfluYRfSw?e=aHyYkm" xr:uid="{CBBA3F4A-1C13-4FF9-AB81-2C2E91592DFB}"/>
-    <hyperlink ref="G2" r:id="rId48" display="https://1drv.ms/f/c/209babed470a3e4c/Ep6H1gr1kl5EmazbHCMRYT0BGQtAxr2f7ISNu5Q9ebXwsQ?e=OO9Vdb" xr:uid="{34133962-1546-4B90-947D-6065B4CB05A8}"/>
-    <hyperlink ref="G3" r:id="rId49" display="https://1drv.ms/f/c/209babed470a3e4c/EkOPVrw-4SpLnrV28VdgJJ4BcI0UYhglgILR6UCKfe-y5w?e=XpfnOB" xr:uid="{036787C5-AB8C-4A33-B182-32598262E422}"/>
-    <hyperlink ref="G5" r:id="rId50" display="https://1drv.ms/f/c/209babed470a3e4c/EtgSr5X5kkZGmmBOiCrp6iwBpISslyXYa2uBYEEYijLmQQ?e=DIWn3b" xr:uid="{F618BAC9-3DF5-4644-80EE-225301C95422}"/>
-    <hyperlink ref="G6" r:id="rId51" display="https://1drv.ms/f/c/209babed470a3e4c/ElXYAsdcHCxCnDjayPVAFAQBJAHYmnpvbLdG3XxDwDgWxw?e=SwiFNf" xr:uid="{D62CCD86-380F-49B2-A20E-848F7AF5140E}"/>
-    <hyperlink ref="G7" r:id="rId52" display="https://1drv.ms/f/c/209babed470a3e4c/ElOGAGLd15BEjnma6PeqFzQBN7zeThZRtjt7-XtZfsSF6w?e=LKyTBs" xr:uid="{AE596FB4-7953-474E-A5E5-6E1ECFFC4E56}"/>
-    <hyperlink ref="G8" r:id="rId53" display="https://1drv.ms/f/c/209babed470a3e4c/Et5m1JkLuo1MppsaTidZTz4B33f3yOdOUXQczfRD-aG5_Q?e=cleh3v" xr:uid="{9614ACB3-825F-4326-957D-64F3A95048F8}"/>
-    <hyperlink ref="G9" r:id="rId54" display="https://1drv.ms/f/c/209babed470a3e4c/EkUmQ3XPtJ1LgDNTWT9OYnUBjNUsnlX8u8wYLTXhyYD4mw?e=TMwxXC" xr:uid="{7B786209-1C97-4B07-A5DF-DBAFD4A39FA2}"/>
-    <hyperlink ref="G10" r:id="rId55" display="https://1drv.ms/f/c/209babed470a3e4c/EpPurcS5f6lLg_oEYmlRxUsBLhXOXkZ4nJ40UhKYbp9qjQ?e=aCZmU2" xr:uid="{7BCBFC24-C3E1-43B0-A7DF-AA041B1986B5}"/>
-    <hyperlink ref="G4" r:id="rId56" display="https://1drv.ms/f/c/209babed470a3e4c/EuangrSxDrpKkvoTPxTPb7gBb8L_N69nzAo7lSq1Q37ltQ?e=nHQbzf" xr:uid="{024DFD28-1E06-4EC8-9922-882A49325DAB}"/>
-    <hyperlink ref="G58" r:id="rId57" display="https://1drv.ms/f/c/209babed470a3e4c/EiR8rSKfeTBMpxhcKLw3IokB81VxkVq9QnCnhks18oT_Yw?e=KNACOL" xr:uid="{014DF7A1-ADC7-4BA7-BAA4-1803CBE6FD0C}"/>
-    <hyperlink ref="G59" r:id="rId58" display="https://1drv.ms/f/c/209babed470a3e4c/EuU8b-hwVT1LsirVkkfdCksBfsGBRBg4LZv2z6Vajerk2A?e=w5EhdS" xr:uid="{1592C261-595D-4BEC-A334-0997D8CDCDAE}"/>
+    <hyperlink ref="G46" r:id="rId1" xr:uid="{9AEEF600-EA64-469D-AAC4-BE8CAF7165EF}"/>
+    <hyperlink ref="G51" r:id="rId2" xr:uid="{9D337A9F-1529-4C66-965A-B5C11A7D7052}"/>
+    <hyperlink ref="G26" r:id="rId3" xr:uid="{4BBCC510-970F-4240-A223-F3819E090D46}"/>
+    <hyperlink ref="G72" r:id="rId4" xr:uid="{1CC6E836-2D1B-4560-ACD4-5F0870A287C6}"/>
+    <hyperlink ref="G55" r:id="rId5" xr:uid="{DB99509A-C287-4FDC-900F-80A983C61EAC}"/>
+    <hyperlink ref="G49" r:id="rId6" xr:uid="{99397182-F34B-4758-BB8E-8FFE7D6C2C68}"/>
+    <hyperlink ref="G50" r:id="rId7" xr:uid="{0398D22F-0C2E-4754-95AB-87B2EE1B31E2}"/>
+    <hyperlink ref="G52" r:id="rId8" xr:uid="{6BEC1333-FCD1-48E8-BB4B-FE99EC43D918}"/>
+    <hyperlink ref="G35" r:id="rId9" xr:uid="{788A73A6-1F8F-49F3-A7B1-E4C0B494C7F1}"/>
+    <hyperlink ref="G63" r:id="rId10" xr:uid="{0731349D-4670-4DC8-A6F4-69BCB533F7F6}"/>
+    <hyperlink ref="G70" r:id="rId11" xr:uid="{36A8CB7B-C229-4AA6-A265-48D491A837A1}"/>
+    <hyperlink ref="G58" r:id="rId12" xr:uid="{4F8B760F-788C-4E9A-9CD7-5CACA1F29A14}"/>
+    <hyperlink ref="G62" r:id="rId13" xr:uid="{DF554996-4431-4E77-9BDB-B42CB0F17A38}"/>
+    <hyperlink ref="G54" r:id="rId14" xr:uid="{5BBE8C47-B6F3-4D03-974C-1AA39672DE8C}"/>
+    <hyperlink ref="G71" r:id="rId15" xr:uid="{C024DBC3-919E-4017-AE81-DDF7164997C6}"/>
+    <hyperlink ref="G27" r:id="rId16" xr:uid="{794F831F-84CA-4685-957E-856A75AADBC7}"/>
+    <hyperlink ref="G60" r:id="rId17" xr:uid="{00C22F3B-4948-4095-9782-8F840E5B93B5}"/>
+    <hyperlink ref="G38" r:id="rId18" display="https://1drv.ms/f/c/209babed470a3e4c/ErgNgPxtJ6xEu8OK6P57n2sBgbdczO4dE1Y6ps1rWNrGIg?e=t0TqyG" xr:uid="{E355BD0B-8CAB-428E-BF11-546527A8E484}"/>
+    <hyperlink ref="G39" r:id="rId19" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=IhMfns" xr:uid="{AAA6FE11-4F3A-4AB6-91F0-2CB7C0269BC0}"/>
+    <hyperlink ref="G43" r:id="rId20" display="https://1drv.ms/f/c/209babed470a3e4c/Eh9eXhZ3YJ1Fq4Ddp9BRnGgB_yuGbVUmh1-IzG9bQ50l1Q?e=5ywND5" xr:uid="{BD8FD547-4D82-467A-B467-4472D9E5B5C5}"/>
+    <hyperlink ref="G61" r:id="rId21" display="https://1drv.ms/f/c/209babed470a3e4c/EjbOWt-H0ANDoZg2N3ePsPwBrhfi0xQrHdEbwSm9UyxBuA?e=M0jeTo" xr:uid="{6B82F018-85F6-4BCB-98B5-28B4B3961BBF}"/>
+    <hyperlink ref="G66" r:id="rId22" display="https://1drv.ms/f/c/209babed470a3e4c/Enb1f2Zh80JJsa0wTiPKMtsBlZ8wac2mmnW7zgz8DCsc7A?e=ha6u2J" xr:uid="{AA4AFE39-C6B9-4816-9AA5-8688C2F76A27}"/>
+    <hyperlink ref="G30" r:id="rId23" display="https://1drv.ms/f/c/209babed470a3e4c/Ev60mJ8FlzROsi-CBSAb-84BMl9_JFECyd621CMs6vcGEw?e=zJqzfu" xr:uid="{621B5839-281F-4C31-B4CA-55DCE423FEBF}"/>
+    <hyperlink ref="G65" r:id="rId24" display="https://1drv.ms/f/c/209babed470a3e4c/EluA9k9918dHsaqdU8s7otABY93QtIA3rDCB9GCvHEA4iA?e=ebCIru" xr:uid="{3686A21D-327F-40EB-816C-374DA8742918}"/>
+    <hyperlink ref="G40" r:id="rId25" display="https://1drv.ms/f/c/209babed470a3e4c/Eg0MBmfkAplMtEqe4aLIHlAB2wTUiwOHN7JYWfh_Xk3H2w?e=JPG9yL" xr:uid="{F84047DF-ABE8-489F-9999-C4238CBDACFA}"/>
+    <hyperlink ref="G28" r:id="rId26" display="https://1drv.ms/f/c/209babed470a3e4c/ElxwHGSJiEBAjSUIm_ZPnjMBjbqJaHcLW1ZQnsl2HVLMBA?e=1EI8jF" xr:uid="{9FFE698A-C3C9-4B33-945A-0AAD804AD9DB}"/>
+    <hyperlink ref="G29" r:id="rId27" display="https://1drv.ms/f/c/209babed470a3e4c/Ev8JmvMqyz5BnxTbXvxKZ9kBNXEcGB29fyU4WP5QM9BWvg?e=vo2t3A" xr:uid="{B046C557-CB0E-46F8-B152-BB86B008C5EF}"/>
+    <hyperlink ref="G31" r:id="rId28" display="https://1drv.ms/f/c/209babed470a3e4c/EhaD8_e1K4BAsKYzfK40pZwBbdjw0A7zkLWJbPvDZXA-uQ?e=JGurJG" xr:uid="{04005D96-8913-4C8A-AFE8-58EFCCD6A129}"/>
+    <hyperlink ref="G32" r:id="rId29" display="https://1drv.ms/f/c/209babed470a3e4c/EsdNgHxW3qNPqvfi6gDlB4sBJ6TG3MnKmM_hNGmnNpkyWw?e=KfCYwx" xr:uid="{94EA7A50-5D40-4531-9A23-17841AF413B0}"/>
+    <hyperlink ref="G33" r:id="rId30" display="https://1drv.ms/f/c/209babed470a3e4c/EoaD8vi9IuxIj7Xp7xlSEh4B2RwGNGD67V54YLBA_pwPzQ?e=a1NbPP" xr:uid="{F57BB664-3A8D-4EB2-A014-7049824A0D9C}"/>
+    <hyperlink ref="G34" r:id="rId31" display="https://1drv.ms/f/c/209babed470a3e4c/EjQkMl1CQ9RLpludRw_6rIkBnHs4RdK3bN8a9XdV-EXNNg?e=zdHzvJ" xr:uid="{97202BCC-84E9-4EA5-BE72-7AB7423D17D8}"/>
+    <hyperlink ref="G36" r:id="rId32" display="https://1drv.ms/f/c/209babed470a3e4c/ElM2RG9sd1pEl8QdB8fbcnIBiPo9MWS_f4nNaLzD8LShgg?e=0C7JVo" xr:uid="{346BF57F-BB4A-4E5F-B895-79527996CE19}"/>
+    <hyperlink ref="G37" r:id="rId33" display="https://1drv.ms/f/c/209babed470a3e4c/Eqf9r0jy4xxCnftEowdLGrkB8PB8A90tf6Xqv0XSJvaUBw?e=jdKaK7" xr:uid="{E2CEFE54-F536-4A1A-BF7F-5FECFE4A6045}"/>
+    <hyperlink ref="G41" r:id="rId34" display="https://1drv.ms/f/c/209babed470a3e4c/EimFVXRv8PBCgBY0m13q8gUBchDV1bzgJ3g3RZ80ttsZAw?e=fjpibj" xr:uid="{734A9C3D-EF31-444A-8E56-91CFDCD27EEE}"/>
+    <hyperlink ref="G42" r:id="rId35" display="https://1drv.ms/f/c/209babed470a3e4c/EgYwLkk2ezpApVRv5_sd4C4Bbk-bb2t2qHFhjr-VvOBIIg?e=i4x3Is" xr:uid="{9EE31BA0-85CE-4D27-863A-AD4DA183CCB3}"/>
+    <hyperlink ref="G44" r:id="rId36" display="https://1drv.ms/f/c/209babed470a3e4c/Eluo7GQG3UJBq8QRx6llP0sBxKQfG5mVt_sZCx8InWPpLg?e=A6MhFq" xr:uid="{06A77BDC-EDFB-47C9-87EF-F1AF5FA69D9A}"/>
+    <hyperlink ref="G45" r:id="rId37" display="https://1drv.ms/f/c/209babed470a3e4c/EndGVEKmpuxAtGTgSpSo22IBIProPjE7EP1NO5dpwwnX2Q?e=BOQihy" xr:uid="{F2954FD3-515B-47E6-9ADC-16B36C1AF6DA}"/>
+    <hyperlink ref="G47" r:id="rId38" display="https://1drv.ms/f/c/209babed470a3e4c/EojRC7r-zcZFqh4jkRiaIrkBAy2Ut20uY3rLruaK6bcGUA?e=Ophtle" xr:uid="{7F6241B0-569B-4EB2-91A0-A4EDB3A75416}"/>
+    <hyperlink ref="G48" r:id="rId39" display="https://1drv.ms/f/c/209babed470a3e4c/EniUqWlTIR9DkovGNszwf1UBWCUduOByn3wefRKhM9BLLg?e=3yLlHz" xr:uid="{FB8C422B-315F-4728-85FE-7FB1015C0D94}"/>
+    <hyperlink ref="G53" r:id="rId40" display="https://1drv.ms/f/c/209babed470a3e4c/EhZz_Y23VEJJmXrG2gsfomgBDX3lDr8sdbZtlin3GvEEzQ?e=1W6aYb" xr:uid="{360232CC-B9FE-427A-A73F-1247573F29A2}"/>
+    <hyperlink ref="G56" r:id="rId41" display="https://1drv.ms/f/c/209babed470a3e4c/Ek2qu_N-PGhItJdrrdXv1o4Bsl4mygFA2UsN1g7P3JMhCQ?e=qfcPiD" xr:uid="{714B6D77-7F72-494C-8E9F-C33A437398EB}"/>
+    <hyperlink ref="G57" r:id="rId42" display="https://1drv.ms/f/c/209babed470a3e4c/EuDAjMjJKXNDlF4e-7pJ5D8Bz4s4zD9jzPHlE4xB8xnlUQ?e=MCUYhm" xr:uid="{E604B275-C181-49CE-BDF3-D1E3B4D4A13F}"/>
+    <hyperlink ref="G59" r:id="rId43" display="https://1drv.ms/f/c/209babed470a3e4c/ErJqIXg0uKZJt6VL7S1vy_wBOcq0Isix6GB-kkn4BASb6Q?e=AI8WRI" xr:uid="{3AF5118B-88D8-47A7-90A9-9EE24ADB66C5}"/>
+    <hyperlink ref="G64" r:id="rId44" display="https://1drv.ms/f/c/209babed470a3e4c/EvV9i8ySSOxMkxR88ifnFVUBpsMuwLQqrFYs4o8koDS__Q?e=GU26ek" xr:uid="{9A8F431F-A7E8-4A46-860C-4033967B114A}"/>
+    <hyperlink ref="G67" r:id="rId45" display="https://1drv.ms/f/c/209babed470a3e4c/EuUQVbyYqGdNur-riX8-9CMB9_H9UB-mkt9c24sNlfYflw?e=sSFQ9q" xr:uid="{666D7899-B95A-4E90-9D9B-F186B8E3BFE2}"/>
+    <hyperlink ref="G68" r:id="rId46" display="https://1drv.ms/f/c/209babed470a3e4c/Egtu4e5Nad1PoPyy0bBnRzIBP41wCO4GcbBjLk3o9wQd4w?e=5FlCSm" xr:uid="{47FE47C3-9351-4B04-8895-BFA3632AF58D}"/>
+    <hyperlink ref="G69" r:id="rId47" display="https://1drv.ms/f/c/209babed470a3e4c/EsB-yiZzUVdLq4v7FzhKYtYBPodb_Q6m27cwmGfluYRfSw?e=aHyYkm" xr:uid="{CBBA3F4A-1C13-4FF9-AB81-2C2E91592DFB}"/>
+    <hyperlink ref="G17" r:id="rId48" display="https://1drv.ms/f/c/209babed470a3e4c/Ep6H1gr1kl5EmazbHCMRYT0BGQtAxr2f7ISNu5Q9ebXwsQ?e=OO9Vdb" xr:uid="{34133962-1546-4B90-947D-6065B4CB05A8}"/>
+    <hyperlink ref="G18" r:id="rId49" display="https://1drv.ms/f/c/209babed470a3e4c/EkOPVrw-4SpLnrV28VdgJJ4BcI0UYhglgILR6UCKfe-y5w?e=XpfnOB" xr:uid="{036787C5-AB8C-4A33-B182-32598262E422}"/>
+    <hyperlink ref="G20" r:id="rId50" display="https://1drv.ms/f/c/209babed470a3e4c/EtgSr5X5kkZGmmBOiCrp6iwBpISslyXYa2uBYEEYijLmQQ?e=DIWn3b" xr:uid="{F618BAC9-3DF5-4644-80EE-225301C95422}"/>
+    <hyperlink ref="G21" r:id="rId51" display="https://1drv.ms/f/c/209babed470a3e4c/ElXYAsdcHCxCnDjayPVAFAQBJAHYmnpvbLdG3XxDwDgWxw?e=SwiFNf" xr:uid="{D62CCD86-380F-49B2-A20E-848F7AF5140E}"/>
+    <hyperlink ref="G22" r:id="rId52" display="https://1drv.ms/f/c/209babed470a3e4c/ElOGAGLd15BEjnma6PeqFzQBN7zeThZRtjt7-XtZfsSF6w?e=LKyTBs" xr:uid="{AE596FB4-7953-474E-A5E5-6E1ECFFC4E56}"/>
+    <hyperlink ref="G23" r:id="rId53" display="https://1drv.ms/f/c/209babed470a3e4c/Et5m1JkLuo1MppsaTidZTz4B33f3yOdOUXQczfRD-aG5_Q?e=cleh3v" xr:uid="{9614ACB3-825F-4326-957D-64F3A95048F8}"/>
+    <hyperlink ref="G24" r:id="rId54" display="https://1drv.ms/f/c/209babed470a3e4c/EkUmQ3XPtJ1LgDNTWT9OYnUBjNUsnlX8u8wYLTXhyYD4mw?e=TMwxXC" xr:uid="{7B786209-1C97-4B07-A5DF-DBAFD4A39FA2}"/>
+    <hyperlink ref="G25" r:id="rId55" display="https://1drv.ms/f/c/209babed470a3e4c/EpPurcS5f6lLg_oEYmlRxUsBLhXOXkZ4nJ40UhKYbp9qjQ?e=aCZmU2" xr:uid="{7BCBFC24-C3E1-43B0-A7DF-AA041B1986B5}"/>
+    <hyperlink ref="G19" r:id="rId56" display="https://1drv.ms/f/c/209babed470a3e4c/EuangrSxDrpKkvoTPxTPb7gBb8L_N69nzAo7lSq1Q37ltQ?e=nHQbzf" xr:uid="{024DFD28-1E06-4EC8-9922-882A49325DAB}"/>
+    <hyperlink ref="G15" r:id="rId57" display="https://1drv.ms/f/c/209babed470a3e4c/EiR8rSKfeTBMpxhcKLw3IokB81VxkVq9QnCnhks18oT_Yw?e=KNACOL" xr:uid="{014DF7A1-ADC7-4BA7-BAA4-1803CBE6FD0C}"/>
+    <hyperlink ref="G16" r:id="rId58" display="https://1drv.ms/f/c/209babed470a3e4c/EuU8b-hwVT1LsirVkkfdCksBfsGBRBg4LZv2z6Vajerk2A?e=w5EhdS" xr:uid="{1592C261-595D-4BEC-A334-0997D8CDCDAE}"/>
+    <hyperlink ref="G2" r:id="rId59" display="https://1drv.ms/f/c/209babed470a3e4c/EkbdshuFd-9PhYj72YNXyzsB-mp5rFaFnRo1PhjgLAeIOA?e=unZ7s7" xr:uid="{DE63AE13-1EC1-4058-AB6D-BE4079CCD5B9}"/>
+    <hyperlink ref="G3" r:id="rId60" display="https://1drv.ms/f/c/209babed470a3e4c/EgFr8-guoftPuEms_7btTBgBWYOiMuewF6FK28H-6n9GjA?e=aqRq9E" xr:uid="{486F5E0D-42CA-4CDA-8AC5-9D2629D06FA0}"/>
+    <hyperlink ref="G4" r:id="rId61" display="https://1drv.ms/f/c/209babed470a3e4c/EmU7C0UQw45OrW1q-2SZgTsBHL7acQAMvWYhJFfxVp56hA?e=sRdgJB" xr:uid="{5C40C67A-A589-4514-A079-4E0BC0F27F3C}"/>
+    <hyperlink ref="G5" r:id="rId62" display="https://1drv.ms/f/c/209babed470a3e4c/ElD2ejdyIAVKvCxu5Cu5lk8BPuVxM5UY_QQo4twKQ8DgCg?e=GCRoLB" xr:uid="{08553EFC-C76E-45DA-B167-AD107228C767}"/>
+    <hyperlink ref="G6" r:id="rId63" display="https://1drv.ms/f/c/209babed470a3e4c/Em9b36vn4U1MlD13Q11oFdoBlEUFKlxmopjL69ALYSfgRA?e=03lfbT" xr:uid="{9EE0E49B-FE0C-4548-936B-879378C9A0CB}"/>
+    <hyperlink ref="G7" r:id="rId64" display="https://1drv.ms/f/c/209babed470a3e4c/EqhiTQyZ32hHls8uNKineG0B_pf82q9jAOYm3l5RC0Ihmw?e=miz3iR" xr:uid="{1301C985-F618-47E8-A608-247639CB83BE}"/>
+    <hyperlink ref="G8" r:id="rId65" display="https://1drv.ms/f/c/209babed470a3e4c/EnhMOEZWLQhAv56aDouGkxIBDjb0i458kXv5G5sar47AiA?e=LakioJ" xr:uid="{CEF73A44-90B8-4816-AC2F-95013DD3B258}"/>
+    <hyperlink ref="G9" r:id="rId66" display="https://1drv.ms/f/c/209babed470a3e4c/EtHADAWA4uhLhUzSFbVuSowBUK_f5utpWVkug-s19jZ6zA?e=TqGKaW" xr:uid="{CE33BBA5-FEEE-4183-8BF4-0281EB7F0A92}"/>
+    <hyperlink ref="G10" r:id="rId67" display="https://1drv.ms/f/c/209babed470a3e4c/Emuq-UrnWlpGhGYYpIYcFv8BJwY8za03zO9lBEiIXYS4Pg?e=ORPyvL" xr:uid="{DAF954E2-E4D5-4C87-BDE3-45D689350400}"/>
+    <hyperlink ref="G11" r:id="rId68" display="https://1drv.ms/f/c/209babed470a3e4c/Egmlb35fCnVCnnBzxON52ywBKpVPaMhXAnQhjBhgcRCUgQ?e=0jJazH" xr:uid="{9D744849-4781-47DA-933C-26FADFC93261}"/>
+    <hyperlink ref="G12" r:id="rId69" display="https://1drv.ms/f/c/209babed470a3e4c/EsXOXdIxxztFvNs9ChcwJ1MB1K_fBQR9g-ba0oDSZCfWlw?e=khBgeQ" xr:uid="{FF777E22-CC51-41DD-87DF-269D7F453DAF}"/>
+    <hyperlink ref="G13" r:id="rId70" display="https://1drv.ms/f/c/209babed470a3e4c/EnHh-u8Ru8xIkGipBlJ54x0BS5BP63Us0DTrBHlTaZ68JA?e=AspYO0" xr:uid="{A789F081-4147-4980-B5A9-347F8359F6AC}"/>
+    <hyperlink ref="G14" r:id="rId71" display="https://1drv.ms/f/c/209babed470a3e4c/Estr03HAUcdEgEUz__4-JwkB420TC09LELatWGcb5CgRxQ?e=XFb56a" xr:uid="{2268E015-777C-4A99-B5B7-FD8E72D67CC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>